--- a/结果分析/result.xlsx
+++ b/结果分析/result.xlsx
@@ -778,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U182"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="U88" sqref="S5:U88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
     <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
@@ -840,7 +840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -881,7 +881,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -911,7 +911,7 @@
         <v>5.7332239151000897</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <f>0.5*(C4+D4)</f>
@@ -919,22 +919,22 @@
       </c>
       <c r="N4">
         <f>(O4+P4+Q4)/3</f>
-        <v>1.38818261218925</v>
+        <v>0.24157642787127512</v>
       </c>
       <c r="O4">
-        <f>H4/E4</f>
-        <v>1.2775362363402707</v>
+        <f>(H4-E4)/H4</f>
+        <v>0.21724333795440709</v>
       </c>
       <c r="P4">
-        <f>I4/F4</f>
-        <v>1.0570073149512131</v>
+        <f t="shared" ref="P4:Q4" si="0">(I4-F4)/I4</f>
+        <v>5.3932753486994021E-2</v>
       </c>
       <c r="Q4">
-        <f>J4/G4</f>
-        <v>1.8300042852762664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>0.45355319217242429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -964,39 +964,30 @@
         <v>0.71547007560729903</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M9" si="0">0.5*(C5+D5)</f>
+        <f t="shared" ref="M5:M9" si="1">0.5*(C5+D5)</f>
         <v>0.87877238892765552</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="1">(O5+P5+Q5)/3</f>
-        <v>1.7015575586116423</v>
+        <f t="shared" ref="N5:N68" si="2">(O5+P5+Q5)/3</f>
+        <v>0.31490656548956614</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O9" si="2">H5/E5</f>
-        <v>1.415051878213764</v>
+        <f t="shared" ref="O5:O9" si="3">(H5-E5)/H5</f>
+        <v>0.29331212841305054</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P9" si="3">I5/F5</f>
-        <v>1.0278523872497605</v>
+        <f t="shared" ref="P5:P10" si="4">(I5-F5)/I5</f>
+        <v>2.709765292688136E-2</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q9" si="4">J5/G5</f>
-        <v>2.6617684103714017</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>0.87877238892765552</v>
-      </c>
-      <c r="U5">
-        <v>1.7015575586116423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q5:Q10" si="5">(J5-G5)/J5</f>
+        <v>0.62430991512876655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1026,39 +1017,30 @@
         <v>0.27947807312011702</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95825546527023853</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
-        <v>3.0117088303869832</v>
+        <f t="shared" si="2"/>
+        <v>0.20213251047221234</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
-        <v>1.3474139998025441</v>
+        <f t="shared" si="3"/>
+        <v>0.25783760585347609</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
-        <v>0.66264986475678367</v>
+        <f t="shared" si="4"/>
+        <v>-0.50909258899047083</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>7.0250626266016223</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>0.95825546527023853</v>
-      </c>
-      <c r="U6">
-        <v>3.0117088303869832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.85765251455363178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -1088,39 +1070,30 @@
         <v>0.16916894912719699</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.120203641114486</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
-        <v>2.5839216544959487</v>
+        <f t="shared" si="2"/>
+        <v>0.55566359260847908</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
-        <v>1.4279509797320036</v>
+        <f t="shared" si="3"/>
+        <v>0.29969584797114041</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
-        <v>3.2145520952701019</v>
+        <f t="shared" si="4"/>
+        <v>0.68891466980068494</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>3.1092618884857397</v>
-      </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>1.120203641114486</v>
-      </c>
-      <c r="U7">
-        <v>2.5839216544959487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.67838026005361163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -1150,39 +1123,30 @@
         <v>0.105547189712524</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1049553571428525</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
-        <v>1.9864674591189011</v>
+        <f t="shared" si="2"/>
+        <v>0.46702111479449776</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>1.3916982860133451</v>
+        <f t="shared" si="3"/>
+        <v>0.2814534514771897</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
-        <v>2.1173969014391223</v>
+        <f t="shared" si="4"/>
+        <v>0.52772198763475375</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>2.4503071899042355</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>1.1049553571428525</v>
-      </c>
-      <c r="U8">
-        <v>1.9864674591189011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.59188790527154977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -1212,46 +1176,33 @@
         <v>5.3732872009277302E-2</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1305106549279711</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
-        <v>1.5641300046385886</v>
+        <f t="shared" si="2"/>
+        <v>0.33022871810421617</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>1.1498677490725817</v>
+        <f t="shared" si="3"/>
+        <v>0.13033477040595029</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
-        <v>1.6011664202398539</v>
+        <f t="shared" si="4"/>
+        <v>0.37545530098601465</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>1.9413558446033299</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
-      <c r="T9">
-        <v>1.1305106549279711</v>
-      </c>
-      <c r="U9">
-        <v>1.5641300046385886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0.48489608292068354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -1288,7 +1239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -1317,37 +1268,31 @@
       <c r="J12">
         <v>5.7215211391448904</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
-        <f t="shared" ref="M12:M41" si="5">0.5*(C12+D12)</f>
+        <f t="shared" ref="M12:M41" si="6">0.5*(C12+D12)</f>
         <v>104.35561497326155</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
-        <v>0.99784243831832542</v>
+        <f t="shared" si="2"/>
+        <v>-2.6572869607901007E-3</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O41" si="6">H12/E12</f>
-        <v>0.97235019510474074</v>
+        <f t="shared" ref="O11:O12" si="7">(H12-E12)/H12</f>
+        <v>-2.8436056304056989E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:P41" si="7">I12/F12</f>
-        <v>0.9946719509440638</v>
+        <f t="shared" ref="P11:P12" si="8">(I12-F12)/I12</f>
+        <v>-5.3565892261054219E-3</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:Q41" si="8">J12/G12</f>
-        <v>1.0265051689061717</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>1.6087777294129451</v>
-      </c>
-      <c r="U12">
-        <v>2.3058809896946717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q11:Q12" si="9">(J12-G12)/J12</f>
+        <v>2.5820784647792108E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>26</v>
@@ -1376,37 +1321,31 @@
       <c r="J13">
         <v>6.4090628623962402</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6087777294129451</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
-        <v>2.3058809896946717</v>
+        <f t="shared" si="2"/>
+        <v>0.27437406330997655</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
-        <v>1.0141878197811862</v>
+        <f t="shared" ref="O13:O76" si="10">(H13-E13)/H13</f>
+        <v>1.3989341524775325E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
-        <v>1.0138366193046904</v>
+        <f t="shared" ref="P13:P76" si="11">(I13-F13)/I13</f>
+        <v>1.3647780166176808E-2</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>4.8896185299981392</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-      <c r="T13">
-        <v>1.2999553408009326</v>
-      </c>
-      <c r="U13">
-        <v>3.3888532853534596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q13:Q76" si="12">(J13-G13)/J13</f>
+        <v>0.79548506823897758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -1435,37 +1374,31 @@
       <c r="J14">
         <v>4.3168540000915501</v>
       </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2999553408009326</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
-        <v>3.3888532853534596</v>
+        <f t="shared" si="2"/>
+        <v>0.33839537740834263</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
-        <v>1.1589421735865255</v>
+        <f t="shared" si="10"/>
+        <v>0.13714417958805861</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
-        <v>1.0029783492928914</v>
+        <f t="shared" si="11"/>
+        <v>2.9695050695672225E-3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="8"/>
-        <v>8.0046393331809629</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>1.4336378302077</v>
-      </c>
-      <c r="U14">
-        <v>2.4877055993869557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.87507244756740221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>28</v>
@@ -1494,37 +1427,31 @@
       <c r="J15">
         <v>5.84441709518432</v>
       </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4336378302077</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>2.4877055993869557</v>
+        <f t="shared" si="2"/>
+        <v>0.30628965900069172</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
-        <v>1.0676465276927301</v>
+        <f t="shared" si="10"/>
+        <v>6.3360415585221569E-2</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
-        <v>1.0442578396687934</v>
+        <f t="shared" si="11"/>
+        <v>4.2382099504113507E-2</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>5.3512124307993441</v>
-      </c>
-      <c r="S15">
-        <v>4</v>
-      </c>
-      <c r="T15">
-        <v>1.3640592947469501</v>
-      </c>
-      <c r="U15">
-        <v>2.5926093654583302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.81312646191274007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
@@ -1553,37 +1480,31 @@
       <c r="J16">
         <v>4.6546459197998002</v>
       </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3640592947469501</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>2.5926093654583302</v>
+        <f t="shared" si="2"/>
+        <v>0.29457134571450072</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
-        <v>1.0279005388011513</v>
+        <f t="shared" si="10"/>
+        <v>2.7143228112023181E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
-        <v>1.0324974052242299</v>
+        <f t="shared" si="11"/>
+        <v>3.1474563577399348E-2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="8"/>
-        <v>5.7174301523496087</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16">
-        <v>1.411538461538459</v>
-      </c>
-      <c r="U16">
-        <v>2.7969981426717951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.82509624545407967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>30</v>
@@ -1612,37 +1533,31 @@
       <c r="J17">
         <v>4.9040219783782897</v>
       </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.411538461538459</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>2.7969981426717951</v>
+        <f t="shared" si="2"/>
+        <v>0.46333792530319662</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
-        <v>2.5433308201705462</v>
+        <f t="shared" si="10"/>
+        <v>0.60681481462449161</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
-        <v>0.98914208093048839</v>
+        <f t="shared" si="11"/>
+        <v>-1.0977107615619307E-2</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="8"/>
-        <v>4.8585215269143509</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>1.2916405165046425</v>
-      </c>
-      <c r="U17">
-        <v>2.3278481084057709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.79417606890071757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
@@ -1671,37 +1586,31 @@
       <c r="J18">
         <v>4.1163079738616899</v>
       </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2916405165046425</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>2.3278481084057709</v>
+        <f t="shared" si="2"/>
+        <v>0.22576557320922871</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
-        <v>1.1070122105856215</v>
+        <f t="shared" si="10"/>
+        <v>9.6667597305914899E-2</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
-        <v>0.81855611981123522</v>
+        <f t="shared" si="11"/>
+        <v>-0.22166333596113982</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="8"/>
-        <v>5.0579759948204561</v>
-      </c>
-      <c r="S18">
-        <v>7</v>
-      </c>
-      <c r="T18">
-        <v>1.3784048426692699</v>
-      </c>
-      <c r="U18">
-        <v>2.2928602530339521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.80229245828291107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>32</v>
@@ -1730,37 +1639,31 @@
       <c r="J19">
         <v>5.0277719497680602</v>
       </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3784048426692699</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>2.2928602530339521</v>
+        <f t="shared" si="2"/>
+        <v>0.30586095607743569</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
-        <v>1.1206571262118532</v>
+        <f t="shared" si="10"/>
+        <v>0.10766640695866475</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
-        <v>1.0214986268706401</v>
+        <f t="shared" si="11"/>
+        <v>2.1046163259662094E-2</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="8"/>
-        <v>4.7364250060193633</v>
-      </c>
-      <c r="S19">
-        <v>8</v>
-      </c>
-      <c r="T19">
-        <v>1.3829301794131741</v>
-      </c>
-      <c r="U19">
-        <v>2.4593566510563192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.78887029801398023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
@@ -1789,37 +1692,31 @@
       <c r="J20">
         <v>5.5150241851806596</v>
       </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3829301794131741</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
-        <v>2.4593566510563192</v>
+        <f t="shared" si="2"/>
+        <v>0.31154144835048075</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
-        <v>1.1072376602560623</v>
+        <f t="shared" si="10"/>
+        <v>9.6851528904158032E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
-        <v>1.0294000384095083</v>
+        <f t="shared" si="11"/>
+        <v>2.8560362650591527E-2</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="8"/>
-        <v>5.241432254503386</v>
-      </c>
-      <c r="S20">
-        <v>9</v>
-      </c>
-      <c r="T20">
-        <v>1.4163694380805034</v>
-      </c>
-      <c r="U20">
-        <v>2.0319965931083352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.80921245349669269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>34</v>
@@ -1848,37 +1745,31 @@
       <c r="J21">
         <v>5.2313778400421098</v>
       </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4163694380805034</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>2.0319965931083352</v>
+        <f t="shared" si="2"/>
+        <v>0.27445257169618537</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
-        <v>1.0654828433699983</v>
+        <f t="shared" si="10"/>
+        <v>6.1458374273661416E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
-        <v>1.0107881002414227</v>
+        <f t="shared" si="11"/>
+        <v>1.0672959286764505E-2</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="8"/>
-        <v>4.0197188357135847</v>
-      </c>
-      <c r="S21">
-        <v>10</v>
-      </c>
-      <c r="T21">
-        <v>1.288688314269709</v>
-      </c>
-      <c r="U21">
-        <v>1.8506447401744188</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.75122638152813026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
@@ -1907,37 +1798,31 @@
       <c r="J22">
         <v>3.3755629062652499</v>
       </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.288688314269709</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
-        <v>1.8506447401744188</v>
+        <f t="shared" si="2"/>
+        <v>0.32698090305660227</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
-        <v>1.3139218342767272</v>
+        <f t="shared" si="10"/>
+        <v>0.23891971811970933</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
-        <v>1.0601027966525822</v>
+        <f t="shared" si="11"/>
+        <v>5.6695253368225139E-2</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="8"/>
-        <v>3.1779095895939475</v>
-      </c>
-      <c r="S22">
-        <v>11</v>
-      </c>
-      <c r="T22">
-        <v>1.3803089847271786</v>
-      </c>
-      <c r="U22">
-        <v>1.7341037344872701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.68532773768187227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
@@ -1966,37 +1851,31 @@
       <c r="J23">
         <v>3.2041571140289302</v>
       </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3803089847271786</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
-        <v>1.7341037344872701</v>
+        <f t="shared" si="2"/>
+        <v>0.28861332880163076</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
-        <v>1.1682460398005561</v>
+        <f t="shared" si="10"/>
+        <v>0.14401592992284332</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
-        <v>1.0618836774166778</v>
+        <f t="shared" si="11"/>
+        <v>5.8277265893404401E-2</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="8"/>
-        <v>2.9721814862445761</v>
-      </c>
-      <c r="S23">
-        <v>12</v>
-      </c>
-      <c r="T23">
-        <v>1.4143997352526201</v>
-      </c>
-      <c r="U23">
-        <v>1.888261464735373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.66354679058864452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>37</v>
@@ -2025,37 +1904,31 @@
       <c r="J24">
         <v>3.63955497741699</v>
       </c>
+      <c r="L24">
+        <v>12</v>
+      </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4143997352526201</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
-        <v>1.888261464735373</v>
+        <f t="shared" si="2"/>
+        <v>0.3109153501718987</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
-        <v>0.955691989382638</v>
+        <f t="shared" si="10"/>
+        <v>-4.6362228740647222E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
-        <v>1.3895782393609377</v>
+        <f t="shared" si="11"/>
+        <v>0.2803571820037305</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="8"/>
-        <v>3.3195141654625431</v>
-      </c>
-      <c r="S24">
-        <v>13</v>
-      </c>
-      <c r="T24">
-        <v>1.3348275403283827</v>
-      </c>
-      <c r="U24">
-        <v>2.194063809793251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.69875109725261275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>38</v>
@@ -2084,37 +1957,31 @@
       <c r="J25">
         <v>3.2436289787292401</v>
       </c>
+      <c r="L25">
+        <v>13</v>
+      </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3348275403283827</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
-        <v>2.194063809793251</v>
+        <f t="shared" si="2"/>
+        <v>0.39370549175237413</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
-        <v>1.0693184607247666</v>
+        <f t="shared" si="10"/>
+        <v>6.4824898541247997E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
-        <v>1.5904164105004397</v>
+        <f t="shared" si="11"/>
+        <v>0.37123385209201881</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="8"/>
-        <v>3.9224565581545465</v>
-      </c>
-      <c r="S25">
-        <v>14</v>
-      </c>
-      <c r="T25">
-        <v>1.2794401042549675</v>
-      </c>
-      <c r="U25">
-        <v>2.050062826898166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.74505772462385556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>39</v>
@@ -2143,37 +2010,31 @@
       <c r="J26">
         <v>2.71380615234375</v>
       </c>
+      <c r="L26">
+        <v>14</v>
+      </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2794401042549675</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
-        <v>2.050062826898166</v>
+        <f t="shared" si="2"/>
+        <v>0.32790240237693991</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
-        <v>0.89562631583258923</v>
+        <f t="shared" si="10"/>
+        <v>-0.11653708954541291</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
-        <v>1.5964473082117727</v>
+        <f t="shared" si="11"/>
+        <v>0.37360914146290919</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="8"/>
-        <v>3.6581148566501365</v>
-      </c>
-      <c r="S26">
-        <v>15</v>
-      </c>
-      <c r="T26">
-        <v>1.392717738403062</v>
-      </c>
-      <c r="U26">
-        <v>2.2660076282481447</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.72663515521332345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>40</v>
@@ -2202,37 +2063,31 @@
       <c r="J27">
         <v>3.4608490467071502</v>
       </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.392717738403062</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
-        <v>2.2660076282481447</v>
+        <f t="shared" si="2"/>
+        <v>0.46880450076433061</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
-        <v>1.2176823764596709</v>
+        <f t="shared" si="10"/>
+        <v>0.17876778104694901</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
-        <v>2.0418752758372287</v>
+        <f t="shared" si="11"/>
+        <v>0.51025412186845209</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="8"/>
-        <v>3.538465232447535</v>
-      </c>
-      <c r="S27">
-        <v>16</v>
-      </c>
-      <c r="T27">
-        <v>1.391606998938389</v>
-      </c>
-      <c r="U27">
-        <v>1.6078649320144771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.71739159937759056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>41</v>
@@ -2261,37 +2116,31 @@
       <c r="J28">
         <v>2.26176404953002</v>
       </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.391606998938389</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
-        <v>1.6078649320144771</v>
+        <f t="shared" si="2"/>
+        <v>0.13993196682449607</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
-        <v>0.86733490827539417</v>
+        <f t="shared" si="10"/>
+        <v>-0.15295716851567367</v>
       </c>
       <c r="P28">
-        <f t="shared" si="7"/>
-        <v>0.90993232969804005</v>
+        <f t="shared" si="11"/>
+        <v>-9.8982822526867201E-2</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="8"/>
-        <v>3.0463275580699971</v>
-      </c>
-      <c r="S28">
-        <v>17</v>
-      </c>
-      <c r="T28">
-        <v>1.3893549702878891</v>
-      </c>
-      <c r="U28">
-        <v>1.5733409486450114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.67173589151602908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>42</v>
@@ -2320,37 +2169,31 @@
       <c r="J29">
         <v>2.1552338600158598</v>
       </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3893549702878891</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
-        <v>1.5733409486450114</v>
+        <f t="shared" si="2"/>
+        <v>0.32148917177222419</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
-        <v>1.4014494778244158</v>
+        <f t="shared" si="10"/>
+        <v>0.28645305034300517</v>
       </c>
       <c r="P29">
-        <f t="shared" si="7"/>
-        <v>1.1663997449037236</v>
+        <f t="shared" si="11"/>
+        <v>0.14266099219479722</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="8"/>
-        <v>2.1521736232068944</v>
-      </c>
-      <c r="S29">
-        <v>18</v>
-      </c>
-      <c r="T29">
-        <v>1.4008715707286454</v>
-      </c>
-      <c r="U29">
-        <v>1.6387775462906582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.53535347277887013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>43</v>
@@ -2379,37 +2222,31 @@
       <c r="J30">
         <v>2.3323340415954501</v>
       </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4008715707286454</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
-        <v>1.6387775462906582</v>
+        <f t="shared" si="2"/>
+        <v>0.27958612558647539</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
-        <v>1.115292980467395</v>
+        <f t="shared" si="10"/>
+        <v>0.10337461320618929</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
-        <v>1.1218739845268511</v>
+        <f t="shared" si="11"/>
+        <v>0.10863429066701398</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="8"/>
-        <v>2.6791656738777281</v>
-      </c>
-      <c r="S30">
-        <v>19</v>
-      </c>
-      <c r="T30">
-        <v>1.3495415966924251</v>
-      </c>
-      <c r="U30">
-        <v>1.3592000549329473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.62674947288622285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>44</v>
@@ -2438,37 +2275,31 @@
       <c r="J31">
         <v>2.1618289947509699</v>
       </c>
+      <c r="L31">
+        <v>19</v>
+      </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3495415966924251</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
-        <v>1.3592000549329473</v>
+        <f t="shared" si="2"/>
+        <v>-4.2104267005094065E-2</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
-        <v>1.2063915667430716</v>
+        <f t="shared" si="10"/>
+        <v>0.17108173865992168</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
-        <v>0.53494210288528854</v>
+        <f t="shared" si="11"/>
+        <v>-0.86936117872635876</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="8"/>
-        <v>2.3362664951704812</v>
-      </c>
-      <c r="S31">
-        <v>20</v>
-      </c>
-      <c r="T31">
-        <v>1.2657379602024019</v>
-      </c>
-      <c r="U31">
-        <v>1.4574313927017568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.57196663905115486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>45</v>
@@ -2497,37 +2328,31 @@
       <c r="J32">
         <v>1.5770740509033201</v>
       </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2657379602024019</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
-        <v>1.4574313927017568</v>
+        <f t="shared" si="2"/>
+        <v>0.24661450699337442</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
-        <v>1.1786068355684403</v>
+        <f t="shared" si="10"/>
+        <v>0.15154064118616656</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
-        <v>1.0605543782307858</v>
+        <f t="shared" si="11"/>
+        <v>5.7096910327033457E-2</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="8"/>
-        <v>2.1331329643060442</v>
-      </c>
-      <c r="S32">
-        <v>21</v>
-      </c>
-      <c r="T32">
-        <v>1.3667102176331416</v>
-      </c>
-      <c r="U32">
-        <v>1.4464653234575771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.53120596946692333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>46</v>
@@ -2556,37 +2381,31 @@
       <c r="J33">
         <v>1.46056103706359</v>
       </c>
+      <c r="L33">
+        <v>21</v>
+      </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3667102176331416</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
-        <v>1.4464653234575771</v>
+        <f t="shared" si="2"/>
+        <v>0.19470996265923338</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
-        <v>1.1142245197664482</v>
+        <f t="shared" si="10"/>
+        <v>0.10251481433058997</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
-        <v>0.92240280716414425</v>
+        <f t="shared" si="11"/>
+        <v>-8.4125061451647443E-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="8"/>
-        <v>2.3027686434421382</v>
-      </c>
-      <c r="S33">
-        <v>22</v>
-      </c>
-      <c r="T33">
-        <v>1.420558487237505</v>
-      </c>
-      <c r="U33">
-        <v>1.4363743546732524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.56574013509875765</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
@@ -2615,37 +2434,31 @@
       <c r="J34">
         <v>1.49707007408142</v>
       </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.420558487237505</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
-        <v>1.4363743546732524</v>
+        <f t="shared" si="2"/>
+        <v>0.25130759309591749</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
-        <v>1.1691607945642695</v>
+        <f t="shared" si="10"/>
+        <v>0.14468565431781635</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
-        <v>1.1148831099619292</v>
+        <f t="shared" si="11"/>
+        <v>0.1030449819675285</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="8"/>
-        <v>2.0250791594935587</v>
-      </c>
-      <c r="S34">
-        <v>23</v>
-      </c>
-      <c r="T34">
-        <v>1.44443476511619</v>
-      </c>
-      <c r="U34">
-        <v>1.771440249440831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.50619214300240756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
@@ -2674,37 +2487,31 @@
       <c r="J35">
         <v>1.71011710166931</v>
       </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.44443476511619</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
-        <v>1.771440249440831</v>
+        <f t="shared" si="2"/>
+        <v>0.41859981511874073</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
-        <v>1.4822553800678981</v>
+        <f t="shared" si="10"/>
+        <v>0.32535242344393267</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
-        <v>1.6188544502323292</v>
+        <f t="shared" si="11"/>
+        <v>0.38227924081965159</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="8"/>
-        <v>2.2132109180222659</v>
-      </c>
-      <c r="S35">
-        <v>24</v>
-      </c>
-      <c r="T35">
-        <v>1.4213296302731799</v>
-      </c>
-      <c r="U35">
-        <v>1.363720385587073</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.54816778109263808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
@@ -2733,37 +2540,31 @@
       <c r="J36">
         <v>1.6044328212737999</v>
       </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
       <c r="M36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4213296302731799</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
-        <v>1.363720385587073</v>
+        <f t="shared" si="2"/>
+        <v>0.17061021576975152</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
-        <v>0.98468527044599941</v>
+        <f t="shared" si="10"/>
+        <v>-1.5552918291408953E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
-        <v>1.0027346571412941</v>
+        <f t="shared" si="11"/>
+        <v>2.727199186562891E-3</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="8"/>
-        <v>2.1037412291739255</v>
-      </c>
-      <c r="S36">
-        <v>25</v>
-      </c>
-      <c r="T36">
-        <v>1.4403271839062102</v>
-      </c>
-      <c r="U36">
-        <v>1.2264957746851743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.52465636641410063</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
@@ -2792,37 +2593,31 @@
       <c r="J37">
         <v>1.5384390354156401</v>
       </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
       <c r="M37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4403271839062102</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
-        <v>1.2264957746851743</v>
+        <f t="shared" si="2"/>
+        <v>-7.2923483544193313E-3</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
-        <v>1.0965088010722392</v>
+        <f t="shared" si="10"/>
+        <v>8.8014616004784024E-2</v>
       </c>
       <c r="P37">
-        <f t="shared" si="7"/>
-        <v>0.62536523640281672</v>
+        <f t="shared" si="11"/>
+        <v>-0.59906554088636566</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="8"/>
-        <v>1.957613286580467</v>
-      </c>
-      <c r="S37">
-        <v>26</v>
-      </c>
-      <c r="T37">
-        <v>1.342806486496033</v>
-      </c>
-      <c r="U37">
-        <v>1.5521058447074634</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.48917387981832366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
@@ -2851,37 +2646,31 @@
       <c r="J38">
         <v>1.4641470909118599</v>
       </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
       <c r="M38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.342806486496033</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
-        <v>1.5521058447074634</v>
+        <f t="shared" si="2"/>
+        <v>0.2938452964608454</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
-        <v>1.204301028594909</v>
+        <f t="shared" si="10"/>
+        <v>0.16964282496152364</v>
       </c>
       <c r="P38">
-        <f t="shared" si="7"/>
-        <v>1.1790256673297346</v>
+        <f t="shared" si="11"/>
+        <v>0.15184204406269886</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="8"/>
-        <v>2.2729908381977468</v>
-      </c>
-      <c r="S38">
-        <v>27</v>
-      </c>
-      <c r="T38">
-        <v>1.4394630676390849</v>
-      </c>
-      <c r="U38">
-        <v>1.3235697320868154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.56005102035831367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
@@ -2910,37 +2699,31 @@
       <c r="J39">
         <v>1.19097995758056</v>
       </c>
+      <c r="L39">
+        <v>27</v>
+      </c>
       <c r="M39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4394630676390849</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
-        <v>1.3235697320868154</v>
+        <f t="shared" si="2"/>
+        <v>0.18071453684706854</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
-        <v>1.0296321258839407</v>
+        <f t="shared" si="10"/>
+        <v>2.8779333063740149E-2</v>
       </c>
       <c r="P39">
-        <f t="shared" si="7"/>
-        <v>1.0414238148648451</v>
+        <f t="shared" si="11"/>
+        <v>3.9776135588200506E-2</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="8"/>
-        <v>1.8996532555116603</v>
-      </c>
-      <c r="S39">
-        <v>28</v>
-      </c>
-      <c r="T39">
-        <v>1.5160860782919698</v>
-      </c>
-      <c r="U39">
-        <v>1.712977866039938</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.47358814188926496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
@@ -2969,37 +2752,31 @@
       <c r="J40">
         <v>1.3630390167236299</v>
       </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
       <c r="M40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5160860782919698</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
-        <v>1.712977866039938</v>
+        <f t="shared" si="2"/>
+        <v>0.27286678862066233</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
-        <v>0.81257166189780627</v>
+        <f t="shared" si="10"/>
+        <v>-0.23066068740871973</v>
       </c>
       <c r="P40">
-        <f t="shared" si="7"/>
-        <v>2.5221047476757139</v>
+        <f t="shared" si="11"/>
+        <v>0.60350576203404482</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="8"/>
-        <v>1.8042571885462941</v>
-      </c>
-      <c r="S40">
-        <v>29</v>
-      </c>
-      <c r="T40">
-        <v>1.4757669107385052</v>
-      </c>
-      <c r="U40">
-        <v>3.1710523674664262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.44575529123666191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
@@ -3028,37 +2805,31 @@
       <c r="J41">
         <v>1.4633331298828101</v>
       </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
       <c r="M41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4757669107385052</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
-        <v>3.1710523674664262</v>
+        <f t="shared" si="2"/>
+        <v>0.52564944695510796</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
-        <v>1.4367091300266288</v>
+        <f t="shared" si="10"/>
+        <v>0.30396488815974509</v>
       </c>
       <c r="P41">
-        <f t="shared" si="7"/>
-        <v>6.3181853615620946</v>
+        <f t="shared" si="11"/>
+        <v>0.84172670746830347</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="8"/>
-        <v>1.7582626108105541</v>
-      </c>
-      <c r="S41">
-        <v>30</v>
-      </c>
-      <c r="T41">
-        <v>1.38365574637459</v>
-      </c>
-      <c r="U41">
-        <v>2.5656247680938442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.43125674523727553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="3" t="s">
         <v>55</v>
@@ -3087,37 +2858,31 @@
       <c r="J42">
         <v>1.4016709327697701</v>
       </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
       <c r="M42">
-        <f t="shared" ref="M42:M105" si="9">0.5*(C42+D42)</f>
+        <f t="shared" ref="M42:M105" si="13">0.5*(C42+D42)</f>
         <v>1.38365574637459</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
-        <v>2.5656247680938442</v>
+        <f t="shared" si="2"/>
+        <v>0.50249744667664531</v>
       </c>
       <c r="O42">
-        <f t="shared" ref="O42:O105" si="10">H42/E42</f>
-        <v>1.3707041120738355</v>
+        <f t="shared" si="10"/>
+        <v>0.27044794628431579</v>
       </c>
       <c r="P42">
-        <f t="shared" ref="P42:P105" si="11">I42/F42</f>
-        <v>4.4720713771021359</v>
+        <f t="shared" si="11"/>
+        <v>0.77638997330852277</v>
       </c>
       <c r="Q42">
-        <f t="shared" ref="Q42:Q105" si="12">J42/G42</f>
-        <v>1.8540988151055613</v>
-      </c>
-      <c r="S42">
-        <v>31</v>
-      </c>
-      <c r="T42">
-        <v>1.45003449190064</v>
-      </c>
-      <c r="U42">
-        <v>2.5847955541787351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0.46065442043709737</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
@@ -3146,37 +2911,31 @@
       <c r="J43">
         <v>1.74540495872497</v>
       </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
       <c r="M43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.45003449190064</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
-        <v>2.5847955541787351</v>
+        <f t="shared" si="2"/>
+        <v>0.47799527914636869</v>
       </c>
       <c r="O43">
         <f t="shared" si="10"/>
-        <v>1.1627105945985479</v>
+        <v>0.13994075168354972</v>
       </c>
       <c r="P43">
         <f t="shared" si="11"/>
-        <v>4.5308685628720378</v>
+        <v>0.77929176577876325</v>
       </c>
       <c r="Q43">
         <f t="shared" si="12"/>
-        <v>2.06080750506562</v>
-      </c>
-      <c r="S43">
-        <v>32</v>
-      </c>
-      <c r="T43">
-        <v>1.3919505280167499</v>
-      </c>
-      <c r="U43">
-        <v>3.0568446916953</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.51475331997679319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="3" t="s">
         <v>57</v>
@@ -3205,37 +2964,31 @@
       <c r="J44">
         <v>1.4660499095916699</v>
       </c>
+      <c r="L44">
+        <v>32</v>
+      </c>
       <c r="M44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3919505280167499</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
-        <v>3.0568446916953</v>
+        <f t="shared" si="2"/>
+        <v>0.52049410667941542</v>
       </c>
       <c r="O44">
         <f t="shared" si="10"/>
-        <v>1.2505528434168203</v>
+        <v>0.20035366337039207</v>
       </c>
       <c r="P44">
         <f t="shared" si="11"/>
-        <v>5.7723627811177947</v>
+        <v>0.82676071516656235</v>
       </c>
       <c r="Q44">
         <f t="shared" si="12"/>
-        <v>2.1476184505512839</v>
-      </c>
-      <c r="S44">
-        <v>33</v>
-      </c>
-      <c r="T44">
-        <v>1.446976220525185</v>
-      </c>
-      <c r="U44">
-        <v>3.1995249244122452</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.53436794150129208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
         <v>58</v>
@@ -3264,37 +3017,31 @@
       <c r="J45">
         <v>1.4600040912628101</v>
       </c>
+      <c r="L45">
+        <v>33</v>
+      </c>
       <c r="M45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.446976220525185</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
-        <v>3.1995249244122452</v>
+        <f t="shared" si="2"/>
+        <v>0.5161440263484085</v>
       </c>
       <c r="O45">
         <f t="shared" si="10"/>
-        <v>1.3005955094397856</v>
+        <v>0.23112144187647027</v>
       </c>
       <c r="P45">
         <f t="shared" si="11"/>
-        <v>6.398273074963023</v>
+        <v>0.8437078273646863</v>
       </c>
       <c r="Q45">
         <f t="shared" si="12"/>
-        <v>1.8997061888339268</v>
-      </c>
-      <c r="S45">
-        <v>34</v>
-      </c>
-      <c r="T45">
-        <v>1.4552949194275251</v>
-      </c>
-      <c r="U45">
-        <v>2.0270361439979472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.47360280980406894</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="3" t="s">
         <v>59</v>
@@ -3323,37 +3070,31 @@
       <c r="J46">
         <v>1.56631207466125</v>
       </c>
+      <c r="L46">
+        <v>34</v>
+      </c>
       <c r="M46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4552949194275251</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
-        <v>2.0270361439979472</v>
+        <f t="shared" si="2"/>
+        <v>0.43790133697380823</v>
       </c>
       <c r="O46">
         <f t="shared" si="10"/>
-        <v>1.1925039616636011</v>
+        <v>0.16142836238048949</v>
       </c>
       <c r="P46">
         <f t="shared" si="11"/>
-        <v>2.9002354919164457</v>
+        <v>0.65520041293639564</v>
       </c>
       <c r="Q46">
         <f t="shared" si="12"/>
-        <v>1.9883689784137946</v>
-      </c>
-      <c r="S46">
-        <v>35</v>
-      </c>
-      <c r="T46">
-        <v>1.426577548854945</v>
-      </c>
-      <c r="U46">
-        <v>2.7947470071166474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.49707523560453959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="3" t="s">
         <v>60</v>
@@ -3382,37 +3123,31 @@
       <c r="J47">
         <v>1.20031714439392</v>
       </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.426577548854945</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
-        <v>2.7947470071166474</v>
+        <f t="shared" si="2"/>
+        <v>0.46557042337343463</v>
       </c>
       <c r="O47">
         <f t="shared" si="10"/>
-        <v>1.182036070498482</v>
+        <v>0.15400212822753778</v>
       </c>
       <c r="P47">
         <f t="shared" si="11"/>
-        <v>5.4605249449564841</v>
+        <v>0.81686742390516287</v>
       </c>
       <c r="Q47">
         <f t="shared" si="12"/>
-        <v>1.7416800058949753</v>
-      </c>
-      <c r="S47">
-        <v>36</v>
-      </c>
-      <c r="T47">
-        <v>1.50607206580641</v>
-      </c>
-      <c r="U47">
-        <v>1.6539706083211094</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.42584171798760329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="3" t="s">
         <v>61</v>
@@ -3441,37 +3176,31 @@
       <c r="J48">
         <v>1.24224185943603</v>
       </c>
+      <c r="L48">
+        <v>36</v>
+      </c>
       <c r="M48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.50607206580641</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
-        <v>1.6539706083211094</v>
+        <f t="shared" si="2"/>
+        <v>0.33636530954511046</v>
       </c>
       <c r="O48">
         <f t="shared" si="10"/>
-        <v>1.0649849591749025</v>
+        <v>6.1019602779413526E-2</v>
       </c>
       <c r="P48">
         <f t="shared" si="11"/>
-        <v>2.2516760098243767</v>
+        <v>0.55588637280103326</v>
       </c>
       <c r="Q48">
         <f t="shared" si="12"/>
-        <v>1.6452508559640489</v>
-      </c>
-      <c r="S48">
-        <v>37</v>
-      </c>
-      <c r="T48">
-        <v>1.489208190327685</v>
-      </c>
-      <c r="U48">
-        <v>5.0935218769744717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.39218995305488452</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="3" t="s">
         <v>62</v>
@@ -3500,37 +3229,31 @@
       <c r="J49">
         <v>1.48379778861999</v>
       </c>
+      <c r="L49">
+        <v>37</v>
+      </c>
       <c r="M49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.489208190327685</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
-        <v>5.0935218769744717</v>
+        <f t="shared" si="2"/>
+        <v>0.48888602727449287</v>
       </c>
       <c r="O49">
         <f t="shared" si="10"/>
-        <v>1.0899259755206188</v>
+        <v>8.2506498184580182E-2</v>
       </c>
       <c r="P49">
         <f t="shared" si="11"/>
-        <v>12.320369162587124</v>
+        <v>0.91883360094138511</v>
       </c>
       <c r="Q49">
         <f t="shared" si="12"/>
-        <v>1.870270492815673</v>
-      </c>
-      <c r="S49">
-        <v>38</v>
-      </c>
-      <c r="T49">
-        <v>1.4467918141822249</v>
-      </c>
-      <c r="U49">
-        <v>3.4513889795158526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.46531798269751329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="3" t="s">
         <v>63</v>
@@ -3559,37 +3282,31 @@
       <c r="J50">
         <v>1.5793828964233301</v>
       </c>
+      <c r="L50">
+        <v>38</v>
+      </c>
       <c r="M50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4467918141822249</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
-        <v>3.4513889795158526</v>
+        <f t="shared" si="2"/>
+        <v>0.44727076329067472</v>
       </c>
       <c r="O50">
         <f t="shared" si="10"/>
-        <v>0.98799937253991543</v>
+        <v>-1.2146391782854838E-2</v>
       </c>
       <c r="P50">
         <f t="shared" si="11"/>
-        <v>7.4095264467273108</v>
+        <v>0.86503860844687497</v>
       </c>
       <c r="Q50">
         <f t="shared" si="12"/>
-        <v>1.9566411192803301</v>
-      </c>
-      <c r="S50">
-        <v>39</v>
-      </c>
-      <c r="T50">
-        <v>1.4310652402205299</v>
-      </c>
-      <c r="U50">
-        <v>4.0734450162118181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.48892007320800412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="3" t="s">
         <v>64</v>
@@ -3618,37 +3335,31 @@
       <c r="J51">
         <v>1.35774493217468</v>
       </c>
+      <c r="L51">
+        <v>39</v>
+      </c>
       <c r="M51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4310652402205299</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
-        <v>4.0734450162118181</v>
+        <f t="shared" si="2"/>
+        <v>0.46835367408866196</v>
       </c>
       <c r="O51">
         <f t="shared" si="10"/>
-        <v>1.0401189000375779</v>
+        <v>3.8571455663509668E-2</v>
       </c>
       <c r="P51">
         <f t="shared" si="11"/>
-        <v>9.2780980914534581</v>
+        <v>0.89221928997267741</v>
       </c>
       <c r="Q51">
         <f t="shared" si="12"/>
-        <v>1.9021180571444194</v>
-      </c>
-      <c r="S51">
-        <v>40</v>
-      </c>
-      <c r="T51">
-        <v>1.49960300566222</v>
-      </c>
-      <c r="U51">
-        <v>4.5987699795062973</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.47427027662979887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="3" t="s">
         <v>65</v>
@@ -3677,37 +3388,31 @@
       <c r="J52">
         <v>1.5241498947143499</v>
       </c>
+      <c r="L52">
+        <v>40</v>
+      </c>
       <c r="M52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.49960300566222</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
-        <v>4.5987699795062973</v>
+        <f t="shared" si="2"/>
+        <v>0.56891754468762012</v>
       </c>
       <c r="O52">
         <f t="shared" si="10"/>
-        <v>1.7422016639416287</v>
+        <v>0.42601363510492873</v>
       </c>
       <c r="P52">
         <f t="shared" si="11"/>
-        <v>10.450442349945765</v>
+        <v>0.90431027065517577</v>
       </c>
       <c r="Q52">
         <f t="shared" si="12"/>
-        <v>1.6036659246314977</v>
-      </c>
-      <c r="S52">
-        <v>41</v>
-      </c>
-      <c r="T52">
-        <v>1.42933252879952</v>
-      </c>
-      <c r="U52">
-        <v>4.1263004613211018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.37642872830275581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="3" t="s">
         <v>66</v>
@@ -3736,37 +3441,31 @@
       <c r="J53">
         <v>1.40274310111999</v>
       </c>
+      <c r="L53">
+        <v>41</v>
+      </c>
       <c r="M53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.42933252879952</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
-        <v>4.1263004613211018</v>
+        <f t="shared" si="2"/>
+        <v>0.52893951045003351</v>
       </c>
       <c r="O53">
         <f t="shared" si="10"/>
-        <v>1.4389326868605039</v>
+        <v>0.30504045871539498</v>
       </c>
       <c r="P53">
         <f t="shared" si="11"/>
-        <v>9.3025698529469576</v>
+        <v>0.89250282278899418</v>
       </c>
       <c r="Q53">
         <f t="shared" si="12"/>
-        <v>1.6373988441558458</v>
-      </c>
-      <c r="S53">
-        <v>42</v>
-      </c>
-      <c r="T53">
-        <v>1.46108798264506</v>
-      </c>
-      <c r="U53">
-        <v>1.6561303855144356</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.38927524984571132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="3" t="s">
         <v>67</v>
@@ -3795,37 +3494,31 @@
       <c r="J54">
         <v>1.5064439773559499</v>
       </c>
+      <c r="L54">
+        <v>42</v>
+      </c>
       <c r="M54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.46108798264506</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
-        <v>1.6561303855144356</v>
+        <f t="shared" si="2"/>
+        <v>0.33710811641828758</v>
       </c>
       <c r="O54">
         <f t="shared" si="10"/>
-        <v>1.1103253903983372</v>
+        <v>9.9363115850892386E-2</v>
       </c>
       <c r="P54">
         <f t="shared" si="11"/>
-        <v>2.347694893082187</v>
+        <v>0.57405027248360052</v>
       </c>
       <c r="Q54">
         <f t="shared" si="12"/>
-        <v>1.5103708730627829</v>
-      </c>
-      <c r="S54">
-        <v>43</v>
-      </c>
-      <c r="T54">
-        <v>1.5020915714004399</v>
-      </c>
-      <c r="U54">
-        <v>3.6504132626664982</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.33791096092036982</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="3" t="s">
         <v>68</v>
@@ -3854,37 +3547,31 @@
       <c r="J55">
         <v>1.8015711307525599</v>
       </c>
+      <c r="L55">
+        <v>43</v>
+      </c>
       <c r="M55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5020915714004399</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
-        <v>3.6504132626664982</v>
+        <f t="shared" si="2"/>
+        <v>0.4072205377841347</v>
       </c>
       <c r="O55">
         <f t="shared" si="10"/>
-        <v>0.9141493375689369</v>
+        <v>-9.3913170313476291E-2</v>
       </c>
       <c r="P55">
         <f t="shared" si="11"/>
-        <v>8.2621241112739447</v>
+        <v>0.87896574942084604</v>
       </c>
       <c r="Q55">
         <f t="shared" si="12"/>
-        <v>1.7749663391566133</v>
-      </c>
-      <c r="S55">
-        <v>44</v>
-      </c>
-      <c r="T55">
-        <v>1.3803227235589901</v>
-      </c>
-      <c r="U55">
-        <v>3.2701294438598367</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.4366090342450345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="3" t="s">
         <v>69</v>
@@ -3913,37 +3600,31 @@
       <c r="J56">
         <v>1.3699979782104399</v>
       </c>
+      <c r="L56">
+        <v>44</v>
+      </c>
       <c r="M56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3803227235589901</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
-        <v>3.2701294438598367</v>
+        <f t="shared" si="2"/>
+        <v>0.54904524833821178</v>
       </c>
       <c r="O56">
         <f t="shared" si="10"/>
-        <v>1.5668120463847386</v>
+        <v>0.36176135337521848</v>
       </c>
       <c r="P56">
         <f t="shared" si="11"/>
-        <v>6.4570868149091982</v>
+        <v>0.84513139924167757</v>
       </c>
       <c r="Q56">
         <f t="shared" si="12"/>
-        <v>1.7864894702855727</v>
-      </c>
-      <c r="S56">
-        <v>45</v>
-      </c>
-      <c r="T56">
-        <v>1.47279584138558</v>
-      </c>
-      <c r="U56">
-        <v>1.9127615293130493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.44024299239773934</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="3" t="s">
         <v>70</v>
@@ -3972,37 +3653,31 @@
       <c r="J57">
         <v>1.3721230030059799</v>
       </c>
+      <c r="L57">
+        <v>45</v>
+      </c>
       <c r="M57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.47279584138558</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
-        <v>1.9127615293130493</v>
+        <f t="shared" si="2"/>
+        <v>0.40514204465045994</v>
       </c>
       <c r="O57">
         <f t="shared" si="10"/>
-        <v>1.162249476332478</v>
+        <v>0.13959952629487285</v>
       </c>
       <c r="P57">
         <f t="shared" si="11"/>
-        <v>2.820497180603744</v>
+        <v>0.64545257946829637</v>
       </c>
       <c r="Q57">
         <f t="shared" si="12"/>
-        <v>1.7555379310029267</v>
-      </c>
-      <c r="S57">
-        <v>46</v>
-      </c>
-      <c r="T57">
-        <v>1.3882454627071901</v>
-      </c>
-      <c r="U57">
-        <v>2.6198793207858517</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.43037402818821069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="3" t="s">
         <v>71</v>
@@ -4031,37 +3706,31 @@
       <c r="J58">
         <v>1.1307361125946001</v>
       </c>
+      <c r="L58">
+        <v>46</v>
+      </c>
       <c r="M58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3882454627071901</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
-        <v>2.6198793207858517</v>
+        <f t="shared" si="2"/>
+        <v>0.52943501611333887</v>
       </c>
       <c r="O58">
         <f t="shared" si="10"/>
-        <v>1.7717743509901998</v>
+        <v>0.43559404196074664</v>
       </c>
       <c r="P58">
         <f t="shared" si="11"/>
-        <v>4.4862951542204907</v>
+        <v>0.77709892781814682</v>
       </c>
       <c r="Q58">
         <f t="shared" si="12"/>
-        <v>1.6015684571468654</v>
-      </c>
-      <c r="S58">
-        <v>47</v>
-      </c>
-      <c r="T58">
-        <v>1.4279811756246299</v>
-      </c>
-      <c r="U58">
-        <v>2.3327182930730301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.37561207856112327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="3" t="s">
         <v>72</v>
@@ -4090,37 +3759,31 @@
       <c r="J59">
         <v>1.0761411190032899</v>
       </c>
+      <c r="L59">
+        <v>47</v>
+      </c>
       <c r="M59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4279811756246299</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
-        <v>2.3327182930730301</v>
+        <f t="shared" si="2"/>
+        <v>0.53060006653369596</v>
       </c>
       <c r="O59">
         <f t="shared" si="10"/>
-        <v>1.777692610535617</v>
+        <v>0.43747305126126329</v>
       </c>
       <c r="P59">
         <f t="shared" si="11"/>
-        <v>3.4103312750342512</v>
+        <v>0.70677335444781486</v>
       </c>
       <c r="Q59">
         <f t="shared" si="12"/>
-        <v>1.8101309936492225</v>
-      </c>
-      <c r="S59">
-        <v>48</v>
-      </c>
-      <c r="T59">
-        <v>1.5179203064235551</v>
-      </c>
-      <c r="U59">
-        <v>1.5846710472145691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.4475537938920095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="3" t="s">
         <v>73</v>
@@ -4149,37 +3812,31 @@
       <c r="J60">
         <v>1.1446070671081501</v>
       </c>
+      <c r="L60">
+        <v>48</v>
+      </c>
       <c r="M60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5179203064235551</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
-        <v>1.5846710472145691</v>
+        <f t="shared" si="2"/>
+        <v>0.30621334208984902</v>
       </c>
       <c r="O60">
         <f t="shared" si="10"/>
-        <v>1.1202501028182374</v>
+        <v>0.10734219306538924</v>
       </c>
       <c r="P60">
         <f t="shared" si="11"/>
-        <v>2.3109889447346341</v>
+        <v>0.56728481878790304</v>
       </c>
       <c r="Q60">
         <f t="shared" si="12"/>
-        <v>1.3227740940908352</v>
-      </c>
-      <c r="S60">
-        <v>49</v>
-      </c>
-      <c r="T60">
-        <v>1.450694446971615</v>
-      </c>
-      <c r="U60">
-        <v>1.9944461980688111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.2440130144162547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="3" t="s">
         <v>74</v>
@@ -4208,37 +3865,31 @@
       <c r="J61">
         <v>1.4795548915862999</v>
       </c>
+      <c r="L61">
+        <v>49</v>
+      </c>
       <c r="M61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.450694446971615</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
-        <v>1.9944461980688111</v>
+        <f t="shared" si="2"/>
+        <v>0.41449019930285064</v>
       </c>
       <c r="O61">
         <f t="shared" si="10"/>
-        <v>1.1151198059652951</v>
+        <v>0.10323537018127169</v>
       </c>
       <c r="P61">
         <f t="shared" si="11"/>
-        <v>2.9465742946230353</v>
+        <v>0.66062284537511273</v>
       </c>
       <c r="Q61">
         <f t="shared" si="12"/>
-        <v>1.9216444936181021</v>
-      </c>
-      <c r="S61">
-        <v>50</v>
-      </c>
-      <c r="T61">
-        <v>1.4655822594355949</v>
-      </c>
-      <c r="U61">
-        <v>2.0823306518108526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.4796123823521673</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="3" t="s">
         <v>75</v>
@@ -4267,37 +3918,31 @@
       <c r="J62">
         <v>1.45524001121521</v>
       </c>
+      <c r="L62">
+        <v>50</v>
+      </c>
       <c r="M62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4655822594355949</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
-        <v>2.0823306518108526</v>
+        <f t="shared" si="2"/>
+        <v>0.44423510738508137</v>
       </c>
       <c r="O62">
         <f t="shared" si="10"/>
-        <v>1.2434435113336417</v>
+        <v>0.19578172157779739</v>
       </c>
       <c r="P62">
         <f t="shared" si="11"/>
-        <v>3.1811364017718642</v>
+        <v>0.68564692810939853</v>
       </c>
       <c r="Q62">
         <f t="shared" si="12"/>
-        <v>1.8224120423270516</v>
-      </c>
-      <c r="S62">
-        <v>51</v>
-      </c>
-      <c r="T62">
-        <v>1.4985495986649351</v>
-      </c>
-      <c r="U62">
-        <v>2.0356801747501101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.45127667246804815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="3" t="s">
         <v>76</v>
@@ -4326,37 +3971,31 @@
       <c r="J63">
         <v>1.2940380573272701</v>
       </c>
+      <c r="L63">
+        <v>51</v>
+      </c>
       <c r="M63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4985495986649351</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
-        <v>2.0356801747501101</v>
+        <f t="shared" si="2"/>
+        <v>0.41931669127526411</v>
       </c>
       <c r="O63">
         <f t="shared" si="10"/>
-        <v>1.1927749141304655</v>
+        <v>0.1616188535210758</v>
       </c>
       <c r="P63">
         <f t="shared" si="11"/>
-        <v>3.2313256746643191</v>
+        <v>0.69052949139709252</v>
       </c>
       <c r="Q63">
         <f t="shared" si="12"/>
-        <v>1.682939935455545</v>
-      </c>
-      <c r="S63">
-        <v>52</v>
-      </c>
-      <c r="T63">
-        <v>1.413899422114685</v>
-      </c>
-      <c r="U63">
-        <v>1.8392742139137208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.40580172890762384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="3" t="s">
         <v>77</v>
@@ -4385,37 +4024,31 @@
       <c r="J64">
         <v>1.12951683998107</v>
       </c>
+      <c r="L64">
+        <v>52</v>
+      </c>
       <c r="M64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.413899422114685</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
-        <v>1.8392742139137208</v>
+        <f t="shared" si="2"/>
+        <v>0.44794160676656974</v>
       </c>
       <c r="O64">
         <f t="shared" si="10"/>
-        <v>1.6732198767505717</v>
+        <v>0.40234991593452674</v>
       </c>
       <c r="P64">
         <f t="shared" si="11"/>
-        <v>2.1737077824330235</v>
+        <v>0.53995656266147074</v>
       </c>
       <c r="Q64">
         <f t="shared" si="12"/>
-        <v>1.6708949825575665</v>
-      </c>
-      <c r="S64">
-        <v>53</v>
-      </c>
-      <c r="T64">
-        <v>1.4980325374630001</v>
-      </c>
-      <c r="U64">
-        <v>1.448646616500217</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.40151834170371176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="3" t="s">
         <v>78</v>
@@ -4444,37 +4077,31 @@
       <c r="J65">
         <v>1.1797740459442101</v>
       </c>
+      <c r="L65">
+        <v>53</v>
+      </c>
       <c r="M65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4980325374630001</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
-        <v>1.448646616500217</v>
+        <f t="shared" si="2"/>
+        <v>0.28299448393637866</v>
       </c>
       <c r="O65">
         <f t="shared" si="10"/>
-        <v>1.0817699443898039</v>
+        <v>7.5589033337331246E-2</v>
       </c>
       <c r="P65">
         <f t="shared" si="11"/>
-        <v>1.6826883017082732</v>
+        <v>0.40571287089546226</v>
       </c>
       <c r="Q65">
         <f t="shared" si="12"/>
-        <v>1.5814816034025736</v>
-      </c>
-      <c r="S65">
-        <v>54</v>
-      </c>
-      <c r="T65">
-        <v>1.50773843826684</v>
-      </c>
-      <c r="U65">
-        <v>1.6651713779801749</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.36768154757634242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="3" t="s">
         <v>79</v>
@@ -4503,37 +4130,31 @@
       <c r="J66">
         <v>1.1830079555511399</v>
       </c>
+      <c r="L66">
+        <v>54</v>
+      </c>
       <c r="M66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.50773843826684</v>
       </c>
       <c r="N66">
-        <f t="shared" si="1"/>
-        <v>1.6651713779801749</v>
+        <f t="shared" si="2"/>
+        <v>0.35247592680277667</v>
       </c>
       <c r="O66">
         <f t="shared" si="10"/>
-        <v>1.1829308205421611</v>
+        <v>0.15464202755180581</v>
       </c>
       <c r="P66">
         <f t="shared" si="11"/>
-        <v>2.305244221150426</v>
+        <v>0.56620648223512193</v>
       </c>
       <c r="Q66">
         <f t="shared" si="12"/>
-        <v>1.5073390922479373</v>
-      </c>
-      <c r="S66">
-        <v>55</v>
-      </c>
-      <c r="T66">
-        <v>1.4697623181911501</v>
-      </c>
-      <c r="U66">
-        <v>1.7689264289669238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.33657927062140225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="3" t="s">
         <v>80</v>
@@ -4562,37 +4183,31 @@
       <c r="J67">
         <v>1.1861698627471899</v>
       </c>
+      <c r="L67">
+        <v>55</v>
+      </c>
       <c r="M67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4697623181911501</v>
       </c>
       <c r="N67">
-        <f t="shared" si="1"/>
-        <v>1.7689264289669238</v>
+        <f t="shared" si="2"/>
+        <v>0.37250891209893511</v>
       </c>
       <c r="O67">
         <f t="shared" si="10"/>
-        <v>1.1801224534823849</v>
+        <v>0.15263030794038995</v>
       </c>
       <c r="P67">
         <f t="shared" si="11"/>
-        <v>2.5835351549023695</v>
+        <v>0.61293346517756619</v>
       </c>
       <c r="Q67">
         <f t="shared" si="12"/>
-        <v>1.5431216785160169</v>
-      </c>
-      <c r="S67">
-        <v>56</v>
-      </c>
-      <c r="T67">
-        <v>1.3666709591026849</v>
-      </c>
-      <c r="U67">
-        <v>1.3399680415572837</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.35196296317884929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="3" t="s">
         <v>81</v>
@@ -4621,37 +4236,31 @@
       <c r="J68">
         <v>1.0131561756134</v>
       </c>
+      <c r="L68">
+        <v>56</v>
+      </c>
       <c r="M68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3666709591026849</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
-        <v>1.3399680415572837</v>
+        <f t="shared" si="2"/>
+        <v>0.24733536387835375</v>
       </c>
       <c r="O68">
         <f t="shared" si="10"/>
-        <v>1.1733211383027915</v>
+        <v>0.14771841454548457</v>
       </c>
       <c r="P68">
         <f t="shared" si="11"/>
-        <v>1.3959487604974008</v>
+        <v>0.2836413281790639</v>
       </c>
       <c r="Q68">
         <f t="shared" si="12"/>
-        <v>1.4506342258716589</v>
-      </c>
-      <c r="S68">
-        <v>57</v>
-      </c>
-      <c r="T68">
-        <v>1.5681572254968601</v>
-      </c>
-      <c r="U68">
-        <v>1.7962811124959146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.31064634891051279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="3" t="s">
         <v>82</v>
@@ -4680,37 +4289,31 @@
       <c r="J69">
         <v>1.13968181610107</v>
       </c>
+      <c r="L69">
+        <v>57</v>
+      </c>
       <c r="M69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5681572254968601</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N89" si="13">(O69+P69+Q69)/3</f>
-        <v>1.7962811124959146</v>
+        <f t="shared" ref="N69:N89" si="14">(O69+P69+Q69)/3</f>
+        <v>0.42425591592349959</v>
       </c>
       <c r="O69">
         <f t="shared" si="10"/>
-        <v>1.4779307967194415</v>
+        <v>0.32337833258519483</v>
       </c>
       <c r="P69">
         <f t="shared" si="11"/>
-        <v>2.2737254831225582</v>
+        <v>0.56019316869040958</v>
       </c>
       <c r="Q69">
         <f t="shared" si="12"/>
-        <v>1.6371870576457439</v>
-      </c>
-      <c r="S69">
-        <v>58</v>
-      </c>
-      <c r="T69">
-        <v>1.3956643792888301</v>
-      </c>
-      <c r="U69">
-        <v>1.9500681521285219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.38919624649489443</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="3" t="s">
         <v>83</v>
@@ -4739,37 +4342,31 @@
       <c r="J70">
         <v>0.95185399055480902</v>
       </c>
+      <c r="L70">
+        <v>58</v>
+      </c>
       <c r="M70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3956643792888301</v>
       </c>
       <c r="N70">
-        <f t="shared" si="13"/>
-        <v>1.9500681521285219</v>
+        <f t="shared" si="14"/>
+        <v>0.39161778021145688</v>
       </c>
       <c r="O70">
         <f t="shared" si="10"/>
-        <v>1.1336232053643933</v>
+        <v>0.11787268003343433</v>
       </c>
       <c r="P70">
         <f t="shared" si="11"/>
-        <v>3.1065956556874443</v>
+        <v>0.67810423021443567</v>
       </c>
       <c r="Q70">
         <f t="shared" si="12"/>
-        <v>1.6099855953337281</v>
-      </c>
-      <c r="S70">
-        <v>59</v>
-      </c>
-      <c r="T70">
-        <v>1.524696163412645</v>
-      </c>
-      <c r="U70">
-        <v>1.8457108008713865</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.37887643038650071</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="3" t="s">
         <v>84</v>
@@ -4798,37 +4395,31 @@
       <c r="J71">
         <v>1.0091640949249201</v>
       </c>
+      <c r="L71">
+        <v>59</v>
+      </c>
       <c r="M71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.524696163412645</v>
       </c>
       <c r="N71">
-        <f t="shared" si="13"/>
-        <v>1.8457108008713865</v>
+        <f t="shared" si="14"/>
+        <v>0.37772747908679882</v>
       </c>
       <c r="O71">
         <f t="shared" si="10"/>
-        <v>1.228104194644333</v>
+        <v>0.18573684190566048</v>
       </c>
       <c r="P71">
         <f t="shared" si="11"/>
-        <v>2.8948208523719798</v>
+        <v>0.65455547994252816</v>
       </c>
       <c r="Q71">
         <f t="shared" si="12"/>
-        <v>1.4142073555978465</v>
-      </c>
-      <c r="S71">
-        <v>60</v>
-      </c>
-      <c r="T71">
-        <v>1.5545972422445251</v>
-      </c>
-      <c r="U71">
-        <v>2.8766253200311565</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.29289011541220783</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="3" t="s">
         <v>85</v>
@@ -4857,37 +4448,31 @@
       <c r="J72">
         <v>1.19895696640014</v>
       </c>
+      <c r="L72">
+        <v>60</v>
+      </c>
       <c r="M72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5545972422445251</v>
       </c>
       <c r="N72">
-        <f t="shared" si="13"/>
-        <v>2.8766253200311565</v>
+        <f t="shared" si="14"/>
+        <v>0.44758985245994598</v>
       </c>
       <c r="O72">
         <f t="shared" si="10"/>
-        <v>1.1480045926876088</v>
+        <v>0.12892334545553799</v>
       </c>
       <c r="P72">
         <f t="shared" si="11"/>
-        <v>5.8569559043437849</v>
+        <v>0.82926284296278308</v>
       </c>
       <c r="Q72">
         <f t="shared" si="12"/>
-        <v>1.6249154630620768</v>
-      </c>
-      <c r="S72">
-        <v>61</v>
-      </c>
-      <c r="T72">
-        <v>1.45152540189956</v>
-      </c>
-      <c r="U72">
-        <v>1.5609276520514692</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.3845833689615169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="3" t="s">
         <v>86</v>
@@ -4916,37 +4501,31 @@
       <c r="J73">
         <v>1.0456690788269001</v>
       </c>
+      <c r="L73">
+        <v>61</v>
+      </c>
       <c r="M73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.45152540189956</v>
       </c>
       <c r="N73">
-        <f t="shared" si="13"/>
-        <v>1.5609276520514692</v>
+        <f t="shared" si="14"/>
+        <v>0.29347020419096448</v>
       </c>
       <c r="O73">
         <f t="shared" si="10"/>
-        <v>1.0276542408272675</v>
+        <v>2.691006345189188E-2</v>
       </c>
       <c r="P73">
         <f t="shared" si="11"/>
-        <v>2.2173262332158576</v>
+        <v>0.54900637307227962</v>
       </c>
       <c r="Q73">
         <f t="shared" si="12"/>
-        <v>1.4378024821112823</v>
-      </c>
-      <c r="S73">
-        <v>62</v>
-      </c>
-      <c r="T73">
-        <v>1.4030110851375399</v>
-      </c>
-      <c r="U73">
-        <v>2.3530278496418009</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.30449417604872198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="3" t="s">
         <v>87</v>
@@ -4975,37 +4554,31 @@
       <c r="J74">
         <v>0.96815800666809004</v>
       </c>
+      <c r="L74">
+        <v>62</v>
+      </c>
       <c r="M74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4030110851375399</v>
       </c>
       <c r="N74">
-        <f t="shared" si="13"/>
-        <v>2.3530278496418009</v>
+        <f t="shared" si="14"/>
+        <v>0.4609856446934244</v>
       </c>
       <c r="O74">
         <f t="shared" si="10"/>
-        <v>1.2984323498144761</v>
+        <v>0.22984050717553131</v>
       </c>
       <c r="P74">
         <f t="shared" si="11"/>
-        <v>4.1026592123495513</v>
+        <v>0.75625565072773615</v>
       </c>
       <c r="Q74">
         <f t="shared" si="12"/>
-        <v>1.6579919867613755</v>
-      </c>
-      <c r="S74">
-        <v>63</v>
-      </c>
-      <c r="T74">
-        <v>1.5160166824047798</v>
-      </c>
-      <c r="U74">
-        <v>2.56093556877163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.39686077617700588</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="3" t="s">
         <v>88</v>
@@ -5034,37 +4607,31 @@
       <c r="J75">
         <v>1.0634021759033201</v>
       </c>
+      <c r="L75">
+        <v>63</v>
+      </c>
       <c r="M75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5160166824047798</v>
       </c>
       <c r="N75">
-        <f t="shared" si="13"/>
-        <v>2.56093556877163</v>
+        <f t="shared" si="14"/>
+        <v>0.42379004868552733</v>
       </c>
       <c r="O75">
         <f t="shared" si="10"/>
-        <v>1.1567637376766882</v>
+        <v>0.13551923575296501</v>
       </c>
       <c r="P75">
         <f t="shared" si="11"/>
-        <v>5.0223741739076466</v>
+        <v>0.80089097996815473</v>
       </c>
       <c r="Q75">
         <f t="shared" si="12"/>
-        <v>1.5036687947305551</v>
-      </c>
-      <c r="S75">
-        <v>64</v>
-      </c>
-      <c r="T75">
-        <v>1.4201606018115349</v>
-      </c>
-      <c r="U75">
-        <v>1.4770745404776611</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.33495993033546223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="3" t="s">
         <v>89</v>
@@ -5093,37 +4660,31 @@
       <c r="J76">
         <v>0.85171890258788996</v>
       </c>
+      <c r="L76">
+        <v>64</v>
+      </c>
       <c r="M76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4201606018115349</v>
       </c>
       <c r="N76">
-        <f t="shared" si="13"/>
-        <v>1.4770745404776611</v>
+        <f t="shared" si="14"/>
+        <v>0.29687517590147833</v>
       </c>
       <c r="O76">
         <f t="shared" si="10"/>
-        <v>1.1309435756666291</v>
+        <v>0.11578258940941853</v>
       </c>
       <c r="P76">
         <f t="shared" si="11"/>
-        <v>1.8210239372170365</v>
+        <v>0.45085839918818366</v>
       </c>
       <c r="Q76">
         <f t="shared" si="12"/>
-        <v>1.4792561085493177</v>
-      </c>
-      <c r="S76">
-        <v>65</v>
-      </c>
-      <c r="T76">
-        <v>1.6456301559193149</v>
-      </c>
-      <c r="U76">
-        <v>2.8677824839442532</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0.32398453910683284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="3" t="s">
         <v>90</v>
@@ -5152,37 +4713,31 @@
       <c r="J77">
         <v>1.32010293006896</v>
       </c>
+      <c r="L77">
+        <v>65</v>
+      </c>
       <c r="M77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.6456301559193149</v>
       </c>
       <c r="N77">
-        <f t="shared" si="13"/>
-        <v>2.8677824839442532</v>
+        <f t="shared" si="14"/>
+        <v>0.58306172407833889</v>
       </c>
       <c r="O77">
-        <f t="shared" si="10"/>
-        <v>2.8457592216634979</v>
+        <f t="shared" ref="O77:O89" si="15">(H77-E77)/H77</f>
+        <v>0.64859992637906771</v>
       </c>
       <c r="P77">
-        <f t="shared" si="11"/>
-        <v>4.2521012870817589</v>
+        <f t="shared" ref="P77:P89" si="16">(I77-F77)/I77</f>
+        <v>0.76482215909623696</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="12"/>
-        <v>1.5054869430875024</v>
-      </c>
-      <c r="S77">
-        <v>66</v>
-      </c>
-      <c r="T77">
-        <v>1.4161932469539349</v>
-      </c>
-      <c r="U77">
-        <v>2.4148881024912212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q77:Q89" si="17">(J77-G77)/J77</f>
+        <v>0.33576308675971178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="3" t="s">
         <v>91</v>
@@ -5211,37 +4766,31 @@
       <c r="J78">
         <v>1.17185401916503</v>
       </c>
+      <c r="L78">
+        <v>66</v>
+      </c>
       <c r="M78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4161932469539349</v>
       </c>
       <c r="N78">
-        <f t="shared" si="13"/>
-        <v>2.4148881024912212</v>
+        <f t="shared" si="14"/>
+        <v>0.52813112791538952</v>
       </c>
       <c r="O78">
-        <f t="shared" si="10"/>
-        <v>1.8969096653194815</v>
+        <f t="shared" si="15"/>
+        <v>0.47282676751421482</v>
       </c>
       <c r="P78">
-        <f t="shared" si="11"/>
-        <v>3.7370383632795257</v>
+        <f t="shared" si="16"/>
+        <v>0.73240842004029461</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="12"/>
-        <v>1.6107162788746565</v>
-      </c>
-      <c r="S78">
-        <v>67</v>
-      </c>
-      <c r="T78">
-        <v>1.4829057716916849</v>
-      </c>
-      <c r="U78">
-        <v>2.0591295541648438</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.37915819619165936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="3" t="s">
         <v>92</v>
@@ -5270,37 +4819,31 @@
       <c r="J79">
         <v>1.1161479949951101</v>
       </c>
+      <c r="L79">
+        <v>67</v>
+      </c>
       <c r="M79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4829057716916849</v>
       </c>
       <c r="N79">
-        <f t="shared" si="13"/>
-        <v>2.0591295541648438</v>
+        <f t="shared" si="14"/>
+        <v>0.32873273085996041</v>
       </c>
       <c r="O79">
-        <f t="shared" si="10"/>
-        <v>0.9062688212199147</v>
+        <f t="shared" si="15"/>
+        <v>-0.10342535965643743</v>
       </c>
       <c r="P79">
-        <f t="shared" si="11"/>
-        <v>3.7107956753120517</v>
+        <f t="shared" si="16"/>
+        <v>0.73051601664489196</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="12"/>
-        <v>1.5603241659625651</v>
-      </c>
-      <c r="S79">
-        <v>68</v>
-      </c>
-      <c r="T79">
-        <v>1.4230823414900651</v>
-      </c>
-      <c r="U79">
-        <v>1.3796138396599744</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.35910753559142672</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="3" t="s">
         <v>93</v>
@@ -5329,37 +4872,31 @@
       <c r="J80">
         <v>0.91967105865478505</v>
       </c>
+      <c r="L80">
+        <v>68</v>
+      </c>
       <c r="M80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4230823414900651</v>
       </c>
       <c r="N80">
-        <f t="shared" si="13"/>
-        <v>1.3796138396599744</v>
+        <f t="shared" si="14"/>
+        <v>0.27105505957092862</v>
       </c>
       <c r="O80">
-        <f t="shared" si="10"/>
-        <v>1.2416971488917583</v>
+        <f t="shared" si="15"/>
+        <v>0.19465064336136897</v>
       </c>
       <c r="P80">
-        <f t="shared" si="11"/>
-        <v>1.4133757459527763</v>
+        <f t="shared" si="16"/>
+        <v>0.29247406228420453</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="12"/>
-        <v>1.4837686241353889</v>
-      </c>
-      <c r="S80">
-        <v>69</v>
-      </c>
-      <c r="T80">
-        <v>1.4900071917937801</v>
-      </c>
-      <c r="U80">
-        <v>1.5145642409047972</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.32604047306721229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="3" t="s">
         <v>94</v>
@@ -5388,37 +4925,31 @@
       <c r="J81">
         <v>0.91366195678710904</v>
       </c>
+      <c r="L81">
+        <v>69</v>
+      </c>
       <c r="M81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4900071917937801</v>
       </c>
       <c r="N81">
-        <f t="shared" si="13"/>
-        <v>1.5145642409047972</v>
+        <f t="shared" si="14"/>
+        <v>0.2994118860719393</v>
       </c>
       <c r="O81">
-        <f t="shared" si="10"/>
-        <v>1.0924018646605809</v>
+        <f t="shared" si="15"/>
+        <v>8.4585963874467499E-2</v>
       </c>
       <c r="P81">
-        <f t="shared" si="11"/>
-        <v>1.9877244265705512</v>
+        <f t="shared" si="16"/>
+        <v>0.49691215410311473</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="12"/>
-        <v>1.4635664314832599</v>
-      </c>
-      <c r="S81">
-        <v>70</v>
-      </c>
-      <c r="T81">
-        <v>1.5431145727969899</v>
-      </c>
-      <c r="U81">
-        <v>3.1220488688612278</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.31673754023823564</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="3" t="s">
         <v>95</v>
@@ -5447,37 +4978,31 @@
       <c r="J82">
         <v>0.99701499938964799</v>
       </c>
+      <c r="L82">
+        <v>70</v>
+      </c>
       <c r="M82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5431145727969899</v>
       </c>
       <c r="N82">
-        <f t="shared" si="13"/>
-        <v>3.1220488688612278</v>
+        <f t="shared" si="14"/>
+        <v>0.35922632627552464</v>
       </c>
       <c r="O82">
-        <f t="shared" si="10"/>
-        <v>0.90209654593618127</v>
+        <f t="shared" si="15"/>
+        <v>-0.10852879828091588</v>
       </c>
       <c r="P82">
-        <f t="shared" si="11"/>
-        <v>6.9723325170788595</v>
+        <f t="shared" si="16"/>
+        <v>0.85657597403014252</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="12"/>
-        <v>1.4917175435686432</v>
-      </c>
-      <c r="S82">
-        <v>71</v>
-      </c>
-      <c r="T82">
-        <v>1.554882531776355</v>
-      </c>
-      <c r="U82">
-        <v>2.9749925050933932</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.32963180307734724</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="3" t="s">
         <v>96</v>
@@ -5506,37 +5031,31 @@
       <c r="J83">
         <v>1.25091099739074</v>
       </c>
+      <c r="L83">
+        <v>71</v>
+      </c>
       <c r="M83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.554882531776355</v>
       </c>
       <c r="N83">
-        <f t="shared" si="13"/>
-        <v>2.9749925050933932</v>
+        <f t="shared" si="14"/>
+        <v>0.54815697155845478</v>
       </c>
       <c r="O83">
-        <f t="shared" si="10"/>
-        <v>1.7989767528560598</v>
+        <f t="shared" si="15"/>
+        <v>0.4441284477898908</v>
       </c>
       <c r="P83">
-        <f t="shared" si="11"/>
-        <v>5.5081625788971076</v>
+        <f t="shared" si="16"/>
+        <v>0.81845125562720245</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="12"/>
-        <v>1.6178381835270121</v>
-      </c>
-      <c r="S83">
-        <v>72</v>
-      </c>
-      <c r="T83">
-        <v>1.5058408192937551</v>
-      </c>
-      <c r="U83">
-        <v>3.7456412657561731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.38189121125827136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="3" t="s">
         <v>97</v>
@@ -5565,37 +5084,31 @@
       <c r="J84">
         <v>1.3901619911193801</v>
       </c>
+      <c r="L84">
+        <v>72</v>
+      </c>
       <c r="M84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5058408192937551</v>
       </c>
       <c r="N84">
-        <f t="shared" si="13"/>
-        <v>3.7456412657561731</v>
+        <f t="shared" si="14"/>
+        <v>0.55615833780065593</v>
       </c>
       <c r="O84">
-        <f t="shared" si="10"/>
-        <v>1.6585347393519101</v>
+        <f t="shared" si="15"/>
+        <v>0.39705815243233283</v>
       </c>
       <c r="P84">
-        <f t="shared" si="11"/>
-        <v>7.9180580659230317</v>
+        <f t="shared" si="16"/>
+        <v>0.87370640734453531</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="12"/>
-        <v>1.6603309919935767</v>
-      </c>
-      <c r="S84">
-        <v>73</v>
-      </c>
-      <c r="T84">
-        <v>1.3933062473787849</v>
-      </c>
-      <c r="U84">
-        <v>2.4845222863649488</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.39771045362509944</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="3" t="s">
         <v>98</v>
@@ -5624,37 +5137,31 @@
       <c r="J85">
         <v>1.19472384452819</v>
       </c>
+      <c r="L85">
+        <v>73</v>
+      </c>
       <c r="M85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3933062473787849</v>
       </c>
       <c r="N85">
-        <f t="shared" si="13"/>
-        <v>2.4845222863649488</v>
+        <f t="shared" si="14"/>
+        <v>0.43024535269954295</v>
       </c>
       <c r="O85">
-        <f t="shared" si="10"/>
-        <v>1.276619372871697</v>
+        <f t="shared" si="15"/>
+        <v>0.21668116491876069</v>
       </c>
       <c r="P85">
-        <f t="shared" si="11"/>
-        <v>4.7819036850490582</v>
+        <f t="shared" si="16"/>
+        <v>0.79087826400047179</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="12"/>
-        <v>1.3950438011740911</v>
-      </c>
-      <c r="S85">
-        <v>74</v>
-      </c>
-      <c r="T85">
-        <v>1.4847454576778949</v>
-      </c>
-      <c r="U85">
-        <v>1.7057437474527379</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.28317662917939634</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="3" t="s">
         <v>99</v>
@@ -5683,37 +5190,31 @@
       <c r="J86">
         <v>1.1150600910186701</v>
       </c>
+      <c r="L86">
+        <v>74</v>
+      </c>
       <c r="M86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4847454576778949</v>
       </c>
       <c r="N86">
-        <f t="shared" si="13"/>
-        <v>1.7057437474527379</v>
+        <f t="shared" si="14"/>
+        <v>0.37461062062455053</v>
       </c>
       <c r="O86">
-        <f t="shared" si="10"/>
-        <v>1.2574437734735764</v>
+        <f t="shared" si="15"/>
+        <v>0.20473581316674774</v>
       </c>
       <c r="P86">
-        <f t="shared" si="11"/>
-        <v>2.3218138093374652</v>
+        <f t="shared" si="16"/>
+        <v>0.56930224293680454</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="12"/>
-        <v>1.5379736595471727</v>
-      </c>
-      <c r="S86">
-        <v>75</v>
-      </c>
-      <c r="T86">
-        <v>1.459438895486165</v>
-      </c>
-      <c r="U86">
-        <v>1.4699472200710098</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.34979380577009939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="3" t="s">
         <v>100</v>
@@ -5742,37 +5243,31 @@
       <c r="J87">
         <v>0.97268795967101995</v>
       </c>
+      <c r="L87">
+        <v>75</v>
+      </c>
       <c r="M87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.459438895486165</v>
       </c>
       <c r="N87">
-        <f t="shared" si="13"/>
-        <v>1.4699472200710098</v>
+        <f t="shared" si="14"/>
+        <v>0.30095469237356115</v>
       </c>
       <c r="O87">
-        <f t="shared" si="10"/>
-        <v>1.2395065039049347</v>
+        <f t="shared" si="15"/>
+        <v>0.19322730711811079</v>
       </c>
       <c r="P87">
-        <f t="shared" si="11"/>
-        <v>1.8214384101265668</v>
+        <f t="shared" si="16"/>
+        <v>0.45098335774608334</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="12"/>
-        <v>1.348896746181528</v>
-      </c>
-      <c r="S87">
-        <v>76</v>
-      </c>
-      <c r="T87">
-        <v>1.5927313693572049</v>
-      </c>
-      <c r="U87">
-        <v>1.7406683309141007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.25865341225648947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="3" t="s">
         <v>101</v>
@@ -5801,37 +5296,31 @@
       <c r="J88">
         <v>1.19203305244445</v>
       </c>
+      <c r="L88">
+        <v>76</v>
+      </c>
       <c r="M88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.5927313693572049</v>
       </c>
       <c r="N88">
-        <f t="shared" si="13"/>
-        <v>1.7406683309141007</v>
+        <f t="shared" si="14"/>
+        <v>0.40817812734878184</v>
       </c>
       <c r="O88">
-        <f t="shared" si="10"/>
-        <v>1.5564917402920064</v>
+        <f t="shared" si="15"/>
+        <v>0.3575295171098084</v>
       </c>
       <c r="P88">
-        <f t="shared" si="11"/>
-        <v>2.1845449467631015</v>
+        <f t="shared" si="16"/>
+        <v>0.54223876167815788</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="12"/>
-        <v>1.4809683056871938</v>
-      </c>
-      <c r="S88">
-        <v>77</v>
-      </c>
-      <c r="T88">
-        <v>1.041925073817543</v>
-      </c>
-      <c r="U88">
-        <v>1.5832497674801758</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.32476610325837907</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="3" t="s">
         <v>102</v>
@@ -5860,28 +5349,31 @@
       <c r="J89">
         <v>0.15716314315795801</v>
       </c>
+      <c r="L89">
+        <v>77</v>
+      </c>
       <c r="M89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.041925073817543</v>
       </c>
       <c r="N89">
-        <f t="shared" si="13"/>
-        <v>1.5832497674801758</v>
+        <f t="shared" si="14"/>
+        <v>0.36608492493402656</v>
       </c>
       <c r="O89">
-        <f t="shared" si="10"/>
-        <v>1.4742246025246111</v>
+        <f t="shared" si="15"/>
+        <v>0.32167730867637201</v>
       </c>
       <c r="P89">
-        <f t="shared" si="11"/>
-        <v>1.7079058425447646</v>
+        <f t="shared" si="16"/>
+        <v>0.41448762859783372</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="12"/>
-        <v>1.5676188573711518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>0.36208983752787399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>104</v>
       </c>
@@ -5898,7 +5390,7 @@
         <v>9.3250274658203108E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="3" t="s">
         <v>105</v>
@@ -5925,23 +5417,23 @@
         <v>2.2999048233032199E-2</v>
       </c>
       <c r="M92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.0695839311334252</v>
       </c>
       <c r="O92" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="O42:O105" si="18">H92/E92</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P92">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P42:P105" si="19">I92/F92</f>
         <v>0.87470056654710659</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="Q42:Q105" si="20">J92/G92</f>
         <v>0.86814680154073176</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="3" t="s">
         <v>106</v>
@@ -5968,23 +5460,23 @@
         <v>1.7106056213378899E-2</v>
       </c>
       <c r="M93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.52080822861077</v>
       </c>
       <c r="O93" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.99054618735737776</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.78525539296698199</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="3" t="s">
         <v>107</v>
@@ -6011,23 +5503,23 @@
         <v>1.02958679199218E-2</v>
       </c>
       <c r="M94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3865099642309602</v>
       </c>
       <c r="O94" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.92360682070925637</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.75102608695651862</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="3" t="s">
         <v>108</v>
@@ -6054,23 +5546,23 @@
         <v>1.28469467163085E-2</v>
       </c>
       <c r="M95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.8444444444444401</v>
       </c>
       <c r="O95" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.0643691132427688</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.96913669064748043</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="3" t="s">
         <v>109</v>
@@ -6097,19 +5589,19 @@
         <v>1.40738487243652E-2</v>
       </c>
       <c r="M96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.4123059229442152</v>
       </c>
       <c r="O96" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.82237304402968325</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.91633033219497151</v>
       </c>
     </row>
@@ -6140,19 +5632,19 @@
         <v>1.16491317749023E-2</v>
       </c>
       <c r="M97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.55833333333333</v>
       </c>
       <c r="O97" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.96326216580111435</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.85310704869659582</v>
       </c>
     </row>
@@ -6183,19 +5675,19 @@
         <v>9.8960399627685495E-3</v>
       </c>
       <c r="M98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.2737799834573948</v>
       </c>
       <c r="O98" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.82963464610682891</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.64785852531685084</v>
       </c>
     </row>
@@ -6226,19 +5718,19 @@
         <v>1.01261138916015E-2</v>
       </c>
       <c r="M99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.0134680134680103</v>
       </c>
       <c r="O99" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.75652985074626822</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.67842310395501548</v>
       </c>
     </row>
@@ -6269,19 +5761,19 @@
         <v>3.87289524078369E-2</v>
       </c>
       <c r="M100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5.1813206214689203</v>
       </c>
       <c r="O100" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.1195906135717202</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.88078752026547191</v>
       </c>
     </row>
@@ -6312,19 +5804,19 @@
         <v>2.3883819580078101E-2</v>
       </c>
       <c r="M101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4866835204891449</v>
       </c>
       <c r="O101" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.98508888299283615</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.0525231936287125</v>
       </c>
     </row>
@@ -6355,19 +5847,19 @@
         <v>8.0657989978790194</v>
       </c>
       <c r="M102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>34.545037441024903</v>
       </c>
       <c r="O102" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.0036519899719507</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>1.0183504633663796</v>
       </c>
     </row>
@@ -6398,19 +5890,19 @@
         <v>11.3721611499786</v>
       </c>
       <c r="M103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.7132694813957601</v>
       </c>
       <c r="O103" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.99299721376546968</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.5995168650344818</v>
       </c>
     </row>
@@ -6441,19 +5933,19 @@
         <v>12.6535658836364</v>
       </c>
       <c r="M104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.4270613767299629</v>
       </c>
       <c r="O104" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0.95069442700646944</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>2.7253389567313437</v>
       </c>
     </row>
@@ -6484,19 +5976,19 @@
         <v>13.2870547771453</v>
       </c>
       <c r="M105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1.3682347299662789</v>
       </c>
       <c r="O105" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.0405697237852096</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>4.6202811716937848</v>
       </c>
     </row>
@@ -6527,19 +6019,19 @@
         <v>7.5330741405486998</v>
       </c>
       <c r="M106">
-        <f t="shared" ref="M106:M169" si="14">0.5*(C106+D106)</f>
+        <f t="shared" ref="M106:M169" si="21">0.5*(C106+D106)</f>
         <v>1.3610454475008349</v>
       </c>
       <c r="O106" t="e">
-        <f t="shared" ref="O106:O169" si="15">H106/E106</f>
+        <f t="shared" ref="O106:O169" si="22">H106/E106</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P106">
-        <f t="shared" ref="P106:P169" si="16">I106/F106</f>
+        <f t="shared" ref="P106:P169" si="23">I106/F106</f>
         <v>1.0507967022959488</v>
       </c>
       <c r="Q106">
-        <f t="shared" ref="Q106:Q169" si="17">J106/G106</f>
+        <f t="shared" ref="Q106:Q169" si="24">J106/G106</f>
         <v>2.5909663550799498</v>
       </c>
     </row>
@@ -6570,19 +6062,19 @@
         <v>6.43936896324157</v>
       </c>
       <c r="M107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.4310560351616299</v>
       </c>
       <c r="O107" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.0844208820546895</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.4139401400976501</v>
       </c>
     </row>
@@ -6613,19 +6105,19 @@
         <v>7.4583840370178196</v>
       </c>
       <c r="M108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.4970815131968549</v>
       </c>
       <c r="O108" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.51399284534781864</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.6602284212267358</v>
       </c>
     </row>
@@ -6656,19 +6148,19 @@
         <v>6.07234382629394</v>
       </c>
       <c r="M109">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.469049522622895</v>
       </c>
       <c r="O109" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1254564047647235</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.1534148729473523</v>
       </c>
     </row>
@@ -6699,19 +6191,19 @@
         <v>5.82818508148193</v>
       </c>
       <c r="M110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.56619274459794</v>
       </c>
       <c r="O110" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.74652339073767116</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.139106249574505</v>
       </c>
     </row>
@@ -6742,19 +6234,19 @@
         <v>5.5024640560150102</v>
       </c>
       <c r="M111">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.50145199732201</v>
       </c>
       <c r="O111" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2532130740826</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.629659655509869</v>
       </c>
     </row>
@@ -6785,19 +6277,19 @@
         <v>5.6371610164642298</v>
       </c>
       <c r="M112">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6016646682672451</v>
       </c>
       <c r="O112" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1907339035952851</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.7351704511596255</v>
       </c>
     </row>
@@ -6828,19 +6320,19 @@
         <v>7.91554522514343</v>
       </c>
       <c r="M113">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6900605146019951</v>
       </c>
       <c r="O113" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.2380439856242891</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.7692572751334394</v>
       </c>
     </row>
@@ -6871,19 +6363,19 @@
         <v>7.34588193893432</v>
       </c>
       <c r="M114">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6061150629390499</v>
       </c>
       <c r="O114" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.2205694726483092</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.615158665634238</v>
       </c>
     </row>
@@ -6914,19 +6406,19 @@
         <v>11.399023056030201</v>
       </c>
       <c r="M115">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7042477244062151</v>
       </c>
       <c r="O115" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P115">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.8379737434556032</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.0319349447187482</v>
       </c>
     </row>
@@ -6957,19 +6449,19 @@
         <v>9.2839970588683993</v>
       </c>
       <c r="M116">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.5169226801113251</v>
       </c>
       <c r="O116" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P116">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.0178759931651093</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.2532262035679631</v>
       </c>
     </row>
@@ -7000,19 +6492,19 @@
         <v>9.7372758388519198</v>
       </c>
       <c r="M117">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.5793243366324599</v>
       </c>
       <c r="O117" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P117">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.4913809938450431</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.3207972349840218</v>
       </c>
     </row>
@@ -7043,19 +6535,19 @@
         <v>8.8595080375671298</v>
       </c>
       <c r="M118">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.645200021470125</v>
       </c>
       <c r="O118" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P118">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.8889521698758998</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.9069466551776106</v>
       </c>
     </row>
@@ -7086,19 +6578,19 @@
         <v>9.1949300765991193</v>
       </c>
       <c r="M119">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.64868147438113</v>
       </c>
       <c r="O119" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P119">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.9352622174880052</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.8627335696175849</v>
       </c>
     </row>
@@ -7129,19 +6621,19 @@
         <v>11.934820175170801</v>
       </c>
       <c r="M120">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.796772879226205</v>
       </c>
       <c r="O120" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P120">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.2613684996811165</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4186277669939458</v>
       </c>
     </row>
@@ -7172,19 +6664,19 @@
         <v>9.8358809947967494</v>
       </c>
       <c r="M121">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.5786257111891349</v>
       </c>
       <c r="O121" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P121">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.7302818183153463</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5447083801248929</v>
       </c>
     </row>
@@ -7215,19 +6707,19 @@
         <v>14.249825954437201</v>
       </c>
       <c r="M122">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7764163521555099</v>
       </c>
       <c r="O122" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P122">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.2463684743708634</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.6111879245003018</v>
       </c>
     </row>
@@ -7258,19 +6750,19 @@
         <v>12.858308076858499</v>
       </c>
       <c r="M123">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6087511782183799</v>
       </c>
       <c r="O123" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P123">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.3673246235068541</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.6112091609236412</v>
       </c>
     </row>
@@ -7301,19 +6793,19 @@
         <v>13.3705179691314</v>
       </c>
       <c r="M124">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7582307426375099</v>
       </c>
       <c r="O124" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P124">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.6275386085321486</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4226632572819196</v>
       </c>
     </row>
@@ -7344,19 +6836,19 @@
         <v>14.4510238170623</v>
       </c>
       <c r="M125">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6396707736366851</v>
       </c>
       <c r="O125" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P125">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.9309394653552148</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5310404163485027</v>
       </c>
     </row>
@@ -7387,19 +6879,19 @@
         <v>16.532687902450501</v>
       </c>
       <c r="M126">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6123131615399</v>
       </c>
       <c r="O126" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.6070041559618944</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.917228581899421</v>
       </c>
     </row>
@@ -7430,19 +6922,19 @@
         <v>16.830615043640101</v>
       </c>
       <c r="M127">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.640464959780785</v>
       </c>
       <c r="O127" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P127">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.9671742971878392</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5913404294452174</v>
       </c>
     </row>
@@ -7473,19 +6965,19 @@
         <v>12.646667957305899</v>
       </c>
       <c r="M128">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.5732193866300199</v>
       </c>
       <c r="O128" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P128">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.0623196587539598</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.7296156943963905</v>
       </c>
     </row>
@@ -7516,19 +7008,19 @@
         <v>11.7666318416595</v>
       </c>
       <c r="M129">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.603313300827415</v>
       </c>
       <c r="O129" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P129">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.8302022995188651</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.6255154663453222</v>
       </c>
     </row>
@@ -7559,19 +7051,19 @@
         <v>11.9361169338226</v>
       </c>
       <c r="M130">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6516925904114999</v>
       </c>
       <c r="O130" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P130">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.4287122138172728</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.6818735626310604</v>
       </c>
     </row>
@@ -7602,19 +7094,19 @@
         <v>11.669195175170801</v>
       </c>
       <c r="M131">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6918048188564749</v>
       </c>
       <c r="O131" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P131">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.0522081135417727</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4461804425976714</v>
       </c>
     </row>
@@ -7645,19 +7137,19 @@
         <v>12.725578069686801</v>
       </c>
       <c r="M132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7552921900931651</v>
       </c>
       <c r="O132" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P132">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.9864233864525627</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4618528442441754</v>
       </c>
     </row>
@@ -7688,19 +7180,19 @@
         <v>13.027565002441399</v>
       </c>
       <c r="M133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6457604312343599</v>
       </c>
       <c r="O133" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P133">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.9442408622112319</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4849102769256455</v>
       </c>
     </row>
@@ -7731,19 +7223,19 @@
         <v>13.5744490623474</v>
       </c>
       <c r="M134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7238383266446649</v>
       </c>
       <c r="O134" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P134">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.5618430402230699</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.5021466959040102</v>
       </c>
     </row>
@@ -7774,19 +7266,19 @@
         <v>13.3298828601837</v>
       </c>
       <c r="M135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6712433315199899</v>
       </c>
       <c r="O135" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P135">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.4049888032144184</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4333970320844636</v>
       </c>
     </row>
@@ -7817,19 +7309,19 @@
         <v>15.731297016143699</v>
       </c>
       <c r="M136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7657488023138899</v>
       </c>
       <c r="O136" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P136">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.0568864146819736</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4658677621578402</v>
       </c>
     </row>
@@ -7860,19 +7352,19 @@
         <v>16.2292931079864</v>
       </c>
       <c r="M137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.684808899727535</v>
       </c>
       <c r="O137" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P137">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3.5046293051290722</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.4756473363018474</v>
       </c>
     </row>
@@ -7903,19 +7395,19 @@
         <v>17.167443990707302</v>
       </c>
       <c r="M138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7290311585377851</v>
       </c>
       <c r="O138" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P138">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.2225008511512958</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.439728052066197</v>
       </c>
     </row>
@@ -7946,19 +7438,19 @@
         <v>16.6031010150909</v>
       </c>
       <c r="M139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6795473995330901</v>
       </c>
       <c r="O139" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P139">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.2951999309693658</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3731005751277876</v>
       </c>
     </row>
@@ -7989,19 +7481,19 @@
         <v>14.572824001312201</v>
       </c>
       <c r="M140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6411734288159301</v>
       </c>
       <c r="O140" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.8199544728189654</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3236114368374323</v>
       </c>
     </row>
@@ -8032,19 +7524,19 @@
         <v>22.3175399303436</v>
       </c>
       <c r="M141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.9248962877983951</v>
       </c>
       <c r="O141" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4.9338444012145919</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3894308518908762</v>
       </c>
     </row>
@@ -8075,19 +7567,19 @@
         <v>22.755714893341001</v>
       </c>
       <c r="M142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6912313926847951</v>
       </c>
       <c r="O142" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>6.5479403887739682</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3753704802426319</v>
       </c>
     </row>
@@ -8118,19 +7610,19 @@
         <v>17.9591608047485</v>
       </c>
       <c r="M143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6462875251011551</v>
       </c>
       <c r="O143" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.8841137538950825</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2456406361314747</v>
       </c>
     </row>
@@ -8161,19 +7653,19 @@
         <v>22.1702480316162</v>
       </c>
       <c r="M144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.8150439166448751</v>
       </c>
       <c r="O144" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.6414347817102377</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1920231602459057</v>
       </c>
     </row>
@@ -8204,19 +7696,19 @@
         <v>18.8445739746093</v>
       </c>
       <c r="M145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6116961174418751</v>
       </c>
       <c r="O145" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.714072016223638</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.217461663180704</v>
       </c>
     </row>
@@ -8247,19 +7739,19 @@
         <v>20.905411005020099</v>
       </c>
       <c r="M146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.79723079529495</v>
       </c>
       <c r="O146" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.501294707003811</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1813124975438092</v>
       </c>
     </row>
@@ -8290,19 +7782,19 @@
         <v>17.6796231269836</v>
       </c>
       <c r="M147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6526756551969051</v>
       </c>
       <c r="O147" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.5961286090397524</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1808134542105191</v>
       </c>
     </row>
@@ -8333,19 +7825,19 @@
         <v>17.361124992370598</v>
       </c>
       <c r="M148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6623240682992799</v>
       </c>
       <c r="O148" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4117975895793842</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2428710471190831</v>
       </c>
     </row>
@@ -8376,19 +7868,19 @@
         <v>14.290143013000399</v>
       </c>
       <c r="M149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.63259258562511</v>
       </c>
       <c r="O149" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.5471625220470657</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2471515697759765</v>
       </c>
     </row>
@@ -8419,19 +7911,19 @@
         <v>16.971798896789501</v>
       </c>
       <c r="M150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.8257595585642399</v>
       </c>
       <c r="O150" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4781493432230257</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2347689222943246</v>
       </c>
     </row>
@@ -8462,19 +7954,19 @@
         <v>17.572314023971501</v>
       </c>
       <c r="M151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7508949454376901</v>
       </c>
       <c r="O151" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4023853364977796</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2061519197794315</v>
       </c>
     </row>
@@ -8505,19 +7997,19 @@
         <v>21.232352972030601</v>
       </c>
       <c r="M152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.785069730731035</v>
       </c>
       <c r="O152" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.3943078468293044</v>
       </c>
       <c r="Q152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2341347548520154</v>
       </c>
     </row>
@@ -8548,19 +8040,19 @@
         <v>22.794131994247401</v>
       </c>
       <c r="M153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7721707089856551</v>
       </c>
       <c r="O153" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2014903706571178</v>
       </c>
       <c r="Q153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2238128324728954</v>
       </c>
     </row>
@@ -8591,19 +8083,19 @@
         <v>17.149484872817901</v>
       </c>
       <c r="M154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6113113868446849</v>
       </c>
       <c r="O154" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.5124816186091423</v>
       </c>
       <c r="Q154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2095459083745272</v>
       </c>
     </row>
@@ -8634,19 +8126,19 @@
         <v>18.357601165771399</v>
       </c>
       <c r="M155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.76717422330342</v>
       </c>
       <c r="O155" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4194122175097703</v>
       </c>
       <c r="Q155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1723832460385417</v>
       </c>
     </row>
@@ -8677,19 +8169,19 @@
         <v>21.752935886383</v>
       </c>
       <c r="M156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.815557175157245</v>
       </c>
       <c r="O156" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.3719614280051677</v>
       </c>
       <c r="Q156">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1816249029180101</v>
       </c>
     </row>
@@ -8720,19 +8212,19 @@
         <v>17.4010670185089</v>
       </c>
       <c r="M157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.615378043594385</v>
       </c>
       <c r="O157" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4369521366474991</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1841463351912913</v>
       </c>
     </row>
@@ -8763,19 +8255,19 @@
         <v>18.375842809677099</v>
       </c>
       <c r="M158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7636430990860301</v>
       </c>
       <c r="O158" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.6348183550548301</v>
       </c>
       <c r="Q158">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1654371622233541</v>
       </c>
     </row>
@@ -8806,19 +8298,19 @@
         <v>19.1271841526031</v>
       </c>
       <c r="M159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.675446684666875</v>
       </c>
       <c r="O159" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.0608904148877121</v>
       </c>
       <c r="Q159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.3833802669674156</v>
       </c>
     </row>
@@ -8849,19 +8341,19 @@
         <v>19.008524894714299</v>
       </c>
       <c r="M160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7517920848937099</v>
       </c>
       <c r="O160" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2724075299213944</v>
       </c>
       <c r="Q160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.2539292979969412</v>
       </c>
     </row>
@@ -8892,19 +8384,19 @@
         <v>18.426152944564802</v>
       </c>
       <c r="M161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.74956783211518</v>
       </c>
       <c r="O161" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.3694448162044306</v>
       </c>
       <c r="Q161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1617185715697389</v>
       </c>
     </row>
@@ -8935,19 +8427,19 @@
         <v>20.968701839447</v>
       </c>
       <c r="M162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.83970073398394</v>
       </c>
       <c r="O162" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4771726102032308</v>
       </c>
       <c r="Q162">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.0987031835743486</v>
       </c>
     </row>
@@ -8978,19 +8470,19 @@
         <v>22.253812074661202</v>
       </c>
       <c r="M163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.754940655847715</v>
       </c>
       <c r="O163" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.4722453420564194</v>
       </c>
       <c r="Q163">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1379816888332035</v>
       </c>
     </row>
@@ -9021,19 +8513,19 @@
         <v>22.070508003234799</v>
       </c>
       <c r="M164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7299500955346252</v>
       </c>
       <c r="O164" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2609261183110023</v>
       </c>
       <c r="Q164">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1463184892470055</v>
       </c>
     </row>
@@ -9064,19 +8556,19 @@
         <v>25.150034904479899</v>
       </c>
       <c r="M165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.82082424128031</v>
       </c>
       <c r="O165" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2452941642898636</v>
       </c>
       <c r="Q165">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1310980879868837</v>
       </c>
     </row>
@@ -9107,19 +8599,19 @@
         <v>19.982114076614302</v>
       </c>
       <c r="M166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.6275314806481851</v>
       </c>
       <c r="O166" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P166">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.1569258016730093</v>
       </c>
       <c r="Q166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1603640470465819</v>
       </c>
     </row>
@@ -9150,19 +8642,19 @@
         <v>18.9333510398864</v>
       </c>
       <c r="M167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7584912454335699</v>
       </c>
       <c r="O167" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P167">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2381010730612594</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.137987963661184</v>
       </c>
     </row>
@@ -9193,19 +8685,19 @@
         <v>20.7199850082397</v>
       </c>
       <c r="M168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.7977436037745349</v>
       </c>
       <c r="O168" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P168">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2336518110351342</v>
       </c>
       <c r="Q168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1505853651400242</v>
       </c>
     </row>
@@ -9236,19 +8728,19 @@
         <v>17.9029409885406</v>
       </c>
       <c r="M169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>1.67226517256856</v>
       </c>
       <c r="O169" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P169">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.5177832172895751</v>
       </c>
       <c r="Q169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1.1607308619798515</v>
       </c>
     </row>
@@ -9279,19 +8771,19 @@
         <v>20.784775972366301</v>
       </c>
       <c r="M170">
-        <f t="shared" ref="M170:M181" si="18">0.5*(C170+D170)</f>
+        <f t="shared" ref="M170:M181" si="25">0.5*(C170+D170)</f>
         <v>1.8256968183248301</v>
       </c>
       <c r="O170" t="e">
-        <f t="shared" ref="O170:O181" si="19">H170/E170</f>
+        <f t="shared" ref="O170:O181" si="26">H170/E170</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P170">
-        <f t="shared" ref="P170:P181" si="20">I170/F170</f>
+        <f t="shared" ref="P170:P181" si="27">I170/F170</f>
         <v>1.2020914871531625</v>
       </c>
       <c r="Q170">
-        <f t="shared" ref="Q170:Q181" si="21">J170/G170</f>
+        <f t="shared" ref="Q170:Q181" si="28">J170/G170</f>
         <v>1.1713774372269126</v>
       </c>
     </row>
@@ -9322,19 +8814,19 @@
         <v>19.737390995025599</v>
       </c>
       <c r="M171">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.7545529541935849</v>
       </c>
       <c r="O171" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P171">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>0.97123820036686737</v>
       </c>
       <c r="Q171">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.1416356061329738</v>
       </c>
     </row>
@@ -9365,19 +8857,19 @@
         <v>23.7304091453552</v>
       </c>
       <c r="M172">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.8182839087310199</v>
       </c>
       <c r="O172" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P172">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.5602075138694611</v>
       </c>
       <c r="Q172">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.0242234526034819</v>
       </c>
     </row>
@@ -9408,19 +8900,19 @@
         <v>23.1992440223693</v>
       </c>
       <c r="M173">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.758058691004865</v>
       </c>
       <c r="O173" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P173">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.3029167341349424</v>
       </c>
       <c r="Q173">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.2448030629534541</v>
       </c>
     </row>
@@ -9451,19 +8943,19 @@
         <v>26.792531013488698</v>
       </c>
       <c r="M174">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.8076975653747249</v>
       </c>
       <c r="O174" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P174">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.3011989934719632</v>
       </c>
       <c r="Q174">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.21877967613454</v>
       </c>
     </row>
@@ -9494,19 +8986,19 @@
         <v>30.9195299148559</v>
       </c>
       <c r="M175">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.8751974638890549</v>
       </c>
       <c r="O175" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P175">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.216202827030519</v>
       </c>
       <c r="Q175">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.1608158814075429</v>
       </c>
     </row>
@@ -9537,19 +9029,19 @@
         <v>27.946159839630099</v>
       </c>
       <c r="M176">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.656862211080115</v>
       </c>
       <c r="O176" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P176">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.3860403541466877</v>
       </c>
       <c r="Q176">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.0987134421971914</v>
       </c>
     </row>
@@ -9580,19 +9072,19 @@
         <v>29.530235052108701</v>
       </c>
       <c r="M177">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.7713551260489249</v>
       </c>
       <c r="O177" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P177">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.2531041139702628</v>
       </c>
       <c r="Q177">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.1210565525095981</v>
       </c>
     </row>
@@ -9623,19 +9115,19 @@
         <v>25.2570030689239</v>
       </c>
       <c r="M178">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.690998707726185</v>
       </c>
       <c r="O178" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P178">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.254809722055177</v>
       </c>
       <c r="Q178">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.133675078923432</v>
       </c>
     </row>
@@ -9666,19 +9158,19 @@
         <v>24.239042043685899</v>
       </c>
       <c r="M179">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.7634210775309549</v>
       </c>
       <c r="O179" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P179">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.2107013455205604</v>
       </c>
       <c r="Q179">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.1341173913260276</v>
       </c>
     </row>
@@ -9709,19 +9201,19 @@
         <v>32.175342082977203</v>
       </c>
       <c r="M180">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.8149593642206199</v>
       </c>
       <c r="O180" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P180">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.6740236941759519</v>
       </c>
       <c r="Q180">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.1983314467418473</v>
       </c>
     </row>
@@ -9752,19 +9244,19 @@
         <v>27.244385004043501</v>
       </c>
       <c r="M181">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.7010758922039249</v>
       </c>
       <c r="O181" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P181">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>1.1793533104247453</v>
       </c>
       <c r="Q181">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>1.1604761091551929</v>
       </c>
     </row>

--- a/结果分析/result.xlsx
+++ b/结果分析/result.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="32460" yWindow="3000" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Validation1" sheetId="1" r:id="rId1"/>
     <sheet name="Validation2" sheetId="2" r:id="rId2"/>
-    <sheet name="superhub" sheetId="3" r:id="rId3"/>
+    <sheet name="最牛B的结论" sheetId="6" r:id="rId3"/>
+    <sheet name="有负值时的比较" sheetId="5" r:id="rId4"/>
+    <sheet name="superhub" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="137">
   <si>
     <t>Method</t>
   </si>
@@ -431,6 +433,15 @@
   </si>
   <si>
     <t>increaseAvg</t>
+  </si>
+  <si>
+    <t>datasets</t>
+  </si>
+  <si>
+    <t>ΔNodes%</t>
+  </si>
+  <si>
+    <t>ΔEdges%</t>
   </si>
 </sst>
 </file>
@@ -780,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="U88" sqref="S5:U88"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -979,11 +990,11 @@
         <v>0.29331212841305054</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P10" si="4">(I5-F5)/I5</f>
+        <f t="shared" ref="P5:P9" si="4">(I5-F5)/I5</f>
         <v>2.709765292688136E-2</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q10" si="5">(J5-G5)/J5</f>
+        <f t="shared" ref="Q5:Q9" si="5">(J5-G5)/J5</f>
         <v>0.62430991512876655</v>
       </c>
     </row>
@@ -1280,15 +1291,15 @@
         <v>-2.6572869607901007E-3</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O11:O12" si="7">(H12-E12)/H12</f>
+        <f t="shared" ref="O12" si="7">(H12-E12)/H12</f>
         <v>-2.8436056304056989E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P11:P12" si="8">(I12-F12)/I12</f>
+        <f t="shared" ref="P12" si="8">(I12-F12)/I12</f>
         <v>-5.3565892261054219E-3</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q11:Q12" si="9">(J12-G12)/J12</f>
+        <f t="shared" ref="Q12" si="9">(J12-G12)/J12</f>
         <v>2.5820784647792108E-2</v>
       </c>
     </row>
@@ -5421,15 +5432,15 @@
         <v>4.0695839311334252</v>
       </c>
       <c r="O92" t="e">
-        <f t="shared" ref="O42:O105" si="18">H92/E92</f>
+        <f t="shared" ref="O92:O105" si="18">H92/E92</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P92">
-        <f t="shared" ref="P42:P105" si="19">I92/F92</f>
+        <f t="shared" ref="P92:P105" si="19">I92/F92</f>
         <v>0.87470056654710659</v>
       </c>
       <c r="Q92">
-        <f t="shared" ref="Q42:Q105" si="20">J92/G92</f>
+        <f t="shared" ref="Q92:Q105" si="20">J92/G92</f>
         <v>0.86814680154073176</v>
       </c>
     </row>
@@ -12764,6 +12775,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="277" zoomScaleNormal="277" zoomScalePageLayoutView="277" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.77737226277372196</v>
+      </c>
+      <c r="C2">
+        <v>1.4630350194552499</v>
+      </c>
+      <c r="D2">
+        <v>0.55566359260847908</v>
+      </c>
+      <c r="E2">
+        <v>0.29969584797114041</v>
+      </c>
+      <c r="F2">
+        <v>0.68891466980068494</v>
+      </c>
+      <c r="G2">
+        <v>0.67838026005361163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1.25147928994082</v>
+      </c>
+      <c r="C3">
+        <v>2.0397810218978099</v>
+      </c>
+      <c r="D3">
+        <v>0.58306172407833889</v>
+      </c>
+      <c r="E3">
+        <v>0.64859992637906771</v>
+      </c>
+      <c r="F3">
+        <v>0.76482215909623696</v>
+      </c>
+      <c r="G3">
+        <v>0.33576308675971178</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="K10:P87">
+    <sortCondition descending="1" ref="M9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView zoomScale="267" zoomScaleNormal="267" zoomScalePageLayoutView="267" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>50.181818181818102</v>
+      </c>
+      <c r="C2">
+        <v>158.529411764705</v>
+      </c>
+      <c r="D2">
+        <v>-2.6572869607901007E-3</v>
+      </c>
+      <c r="E2">
+        <v>-2.8436056304056989E-2</v>
+      </c>
+      <c r="F2">
+        <v>-5.3565892261054219E-3</v>
+      </c>
+      <c r="G2">
+        <v>2.5820784647792108E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/结果分析/result.xlsx
+++ b/结果分析/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="3000" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Validation1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="141">
   <si>
     <t>Method</t>
   </si>
@@ -443,15 +443,43 @@
   <si>
     <t>ΔEdges%</t>
   </si>
+  <si>
+    <t>REGULAR Increase ALgorithm</t>
+  </si>
+  <si>
+    <t>Approximate Increase ALgorithm</t>
+  </si>
+  <si>
+    <t>Boundary Searching</t>
+  </si>
+  <si>
+    <t>Community Detection</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,10 +502,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,6 +540,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,7 +555,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,6 +574,3106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2008-12 (564K)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>superhub!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Community Detection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>superhub!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Algorithm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REGULAR Increase ALgorithm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Approximate Increase ALgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>superhub!$C$17:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51.9542779922485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.92863464355467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.583971420923864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>superhub!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boundary Searching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>superhub!$A$17:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Algorithm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REGULAR Increase ALgorithm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Approximate Increase ALgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>superhub!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.718330065409336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13141131401062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1544535088"/>
+        <c:axId val="1499494384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1544535088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1499494384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1499494384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.213950931541749"/>
+              <c:y val="0.339116776672135"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1544535088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2013-01</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(7.8M)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>superhub!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Community Detection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>superhub!$A$23:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Algorithm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REGULAR Increase ALgorithm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Approximate Increase ALgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>superhub!$C$23:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1428.31413888931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.79392425219213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.898360411326084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>superhub!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boundary Searching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>superhub!$A$23:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Algorithm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REGULAR Increase ALgorithm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Approximate Increase ALgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>superhub!$B$23:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.64520208040873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.024053812026976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1470042528"/>
+        <c:axId val="1432148720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1470042528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432148720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1432148720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.192062133184996"/>
+              <c:y val="0.355608276128588"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1470042528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2016-02</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(9.8M)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="mr-IN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>superhub!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Community Detection</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>superhub!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Algorithm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REGULAR Increase ALgorithm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Approximate Increase ALgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>superhub!$C$29:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1537.63698220253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.3456375598907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.61942394574479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>superhub!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boundary Searching</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>superhub!$A$29:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Naïve Algorithm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>REGULAR Increase ALgorithm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Approximate Increase ALgorithm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>superhub!$B$29:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.065679311752316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.516858021418247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1431210512"/>
+        <c:axId val="1468191056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1431210512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468191056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1468191056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1431210512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>331983</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>188050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>782053</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123881</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482377</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>108062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>12479</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>677333</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>303017</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45899</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -807,20 +3957,20 @@
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
@@ -852,7 +4002,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -893,7 +4043,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -946,7 +4096,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -999,7 +4149,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +4202,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1105,7 +4255,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1158,7 +4308,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1214,7 +4364,7 @@
       <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1251,7 +4401,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +4454,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
@@ -1357,7 +4507,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +4560,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1463,7 +4613,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1516,7 +4666,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +4719,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -1622,7 +4772,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1675,7 +4825,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +4878,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1781,7 +4931,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1834,7 +4984,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +5037,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1940,7 +5090,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +5143,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>39</v>
       </c>
@@ -2046,7 +5196,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>40</v>
       </c>
@@ -2099,7 +5249,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2152,7 +5302,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +5355,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>43</v>
       </c>
@@ -2258,7 +5408,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>44</v>
       </c>
@@ -2311,7 +5461,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
@@ -2364,7 +5514,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
@@ -2417,7 +5567,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>47</v>
       </c>
@@ -2470,7 +5620,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>48</v>
       </c>
@@ -2523,7 +5673,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
@@ -2576,7 +5726,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3" t="s">
         <v>50</v>
       </c>
@@ -2629,7 +5779,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>51</v>
       </c>
@@ -2682,7 +5832,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
@@ -2735,7 +5885,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="3" t="s">
         <v>53</v>
       </c>
@@ -2788,7 +5938,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="3" t="s">
         <v>54</v>
       </c>
@@ -2841,7 +5991,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="3" t="s">
         <v>55</v>
       </c>
@@ -2894,7 +6044,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="3" t="s">
         <v>56</v>
       </c>
@@ -2947,7 +6097,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3" t="s">
         <v>57</v>
       </c>
@@ -3000,7 +6150,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
         <v>58</v>
       </c>
@@ -3053,7 +6203,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="3" t="s">
         <v>59</v>
       </c>
@@ -3106,7 +6256,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3" t="s">
         <v>60</v>
       </c>
@@ -3159,7 +6309,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="3" t="s">
         <v>61</v>
       </c>
@@ -3212,7 +6362,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
@@ -3265,7 +6415,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="3" t="s">
         <v>63</v>
       </c>
@@ -3318,7 +6468,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="3" t="s">
         <v>64</v>
       </c>
@@ -3371,7 +6521,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="3" t="s">
         <v>65</v>
       </c>
@@ -3424,7 +6574,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="3" t="s">
         <v>66</v>
       </c>
@@ -3477,7 +6627,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="3" t="s">
         <v>67</v>
       </c>
@@ -3530,7 +6680,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="3" t="s">
         <v>68</v>
       </c>
@@ -3583,7 +6733,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="3" t="s">
         <v>69</v>
       </c>
@@ -3636,7 +6786,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -3689,7 +6839,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3742,7 +6892,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="3" t="s">
         <v>72</v>
       </c>
@@ -3795,7 +6945,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="3" t="s">
         <v>73</v>
       </c>
@@ -3848,7 +6998,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="3" t="s">
         <v>74</v>
       </c>
@@ -3901,7 +7051,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="3" t="s">
         <v>75</v>
       </c>
@@ -3954,7 +7104,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="3" t="s">
         <v>76</v>
       </c>
@@ -4007,7 +7157,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="3" t="s">
         <v>77</v>
       </c>
@@ -4060,7 +7210,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="3" t="s">
         <v>78</v>
       </c>
@@ -4113,7 +7263,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="3" t="s">
         <v>79</v>
       </c>
@@ -4166,7 +7316,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="3" t="s">
         <v>80</v>
       </c>
@@ -4219,7 +7369,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="3" t="s">
         <v>81</v>
       </c>
@@ -4272,7 +7422,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="3" t="s">
         <v>82</v>
       </c>
@@ -4325,7 +7475,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="3" t="s">
         <v>83</v>
       </c>
@@ -4378,7 +7528,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="3" t="s">
         <v>84</v>
       </c>
@@ -4431,7 +7581,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="3" t="s">
         <v>85</v>
       </c>
@@ -4484,7 +7634,7 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="3" t="s">
         <v>86</v>
       </c>
@@ -4537,7 +7687,7 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -4590,7 +7740,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="3" t="s">
         <v>88</v>
       </c>
@@ -4643,7 +7793,7 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="3" t="s">
         <v>89</v>
       </c>
@@ -4696,7 +7846,7 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="3" t="s">
         <v>90</v>
       </c>
@@ -4749,7 +7899,7 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="3" t="s">
         <v>91</v>
       </c>
@@ -4802,7 +7952,7 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="3" t="s">
         <v>92</v>
       </c>
@@ -4855,7 +8005,7 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="3" t="s">
         <v>93</v>
       </c>
@@ -4908,7 +8058,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="3" t="s">
         <v>94</v>
       </c>
@@ -4961,7 +8111,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="3" t="s">
         <v>95</v>
       </c>
@@ -5014,7 +8164,7 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="3" t="s">
         <v>96</v>
       </c>
@@ -5067,7 +8217,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="3" t="s">
         <v>97</v>
       </c>
@@ -5120,7 +8270,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="3" t="s">
         <v>98</v>
       </c>
@@ -5173,7 +8323,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
@@ -5226,7 +8376,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="3" t="s">
         <v>100</v>
       </c>
@@ -5279,7 +8429,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="3" t="s">
         <v>101</v>
       </c>
@@ -5332,7 +8482,7 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="3" t="s">
         <v>102</v>
       </c>
@@ -5385,7 +8535,7 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5402,7 +8552,7 @@
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="3" t="s">
         <v>105</v>
       </c>
@@ -5445,7 +8595,7 @@
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="3" t="s">
         <v>106</v>
       </c>
@@ -5488,7 +8638,7 @@
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="3" t="s">
         <v>107</v>
       </c>
@@ -5531,7 +8681,7 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
+      <c r="A95" s="11"/>
       <c r="B95" s="3" t="s">
         <v>108</v>
       </c>
@@ -5574,7 +8724,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
+      <c r="A96" s="11"/>
       <c r="B96" s="3" t="s">
         <v>109</v>
       </c>
@@ -5617,7 +8767,7 @@
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
+      <c r="A97" s="11"/>
       <c r="B97" s="3" t="s">
         <v>110</v>
       </c>
@@ -5660,7 +8810,7 @@
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
+      <c r="A98" s="11"/>
       <c r="B98" s="3" t="s">
         <v>111</v>
       </c>
@@ -5703,7 +8853,7 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
+      <c r="A99" s="11"/>
       <c r="B99" s="3" t="s">
         <v>112</v>
       </c>
@@ -5746,7 +8896,7 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
+      <c r="A100" s="11"/>
       <c r="B100" s="3" t="s">
         <v>113</v>
       </c>
@@ -5789,7 +8939,7 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
+      <c r="A101" s="11"/>
       <c r="B101" s="3" t="s">
         <v>114</v>
       </c>
@@ -5832,7 +8982,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
+      <c r="A102" s="11"/>
       <c r="B102" s="3" t="s">
         <v>115</v>
       </c>
@@ -5875,7 +9025,7 @@
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="3" t="s">
         <v>116</v>
       </c>
@@ -5918,7 +9068,7 @@
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="3" t="s">
         <v>117</v>
       </c>
@@ -5961,7 +9111,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="3" t="s">
         <v>25</v>
       </c>
@@ -6004,7 +9154,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="3" t="s">
         <v>26</v>
       </c>
@@ -6047,7 +9197,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="3" t="s">
         <v>27</v>
       </c>
@@ -6090,7 +9240,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="3" t="s">
         <v>28</v>
       </c>
@@ -6133,7 +9283,7 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="3" t="s">
         <v>29</v>
       </c>
@@ -6176,7 +9326,7 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="3" t="s">
         <v>30</v>
       </c>
@@ -6219,7 +9369,7 @@
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="3" t="s">
         <v>31</v>
       </c>
@@ -6262,7 +9412,7 @@
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="3" t="s">
         <v>32</v>
       </c>
@@ -6305,7 +9455,7 @@
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="3" t="s">
         <v>33</v>
       </c>
@@ -6348,7 +9498,7 @@
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="3" t="s">
         <v>34</v>
       </c>
@@ -6391,7 +9541,7 @@
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="3" t="s">
         <v>35</v>
       </c>
@@ -6434,7 +9584,7 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="3" t="s">
         <v>36</v>
       </c>
@@ -6477,7 +9627,7 @@
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="3" t="s">
         <v>37</v>
       </c>
@@ -6520,7 +9670,7 @@
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="3" t="s">
         <v>38</v>
       </c>
@@ -6563,7 +9713,7 @@
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="3" t="s">
         <v>39</v>
       </c>
@@ -6606,7 +9756,7 @@
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="3" t="s">
         <v>40</v>
       </c>
@@ -6649,7 +9799,7 @@
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
+      <c r="A121" s="11"/>
       <c r="B121" s="3" t="s">
         <v>41</v>
       </c>
@@ -6692,7 +9842,7 @@
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="3" t="s">
         <v>42</v>
       </c>
@@ -6735,7 +9885,7 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="3" t="s">
         <v>43</v>
       </c>
@@ -6778,7 +9928,7 @@
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="3" t="s">
         <v>44</v>
       </c>
@@ -6821,7 +9971,7 @@
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="3" t="s">
         <v>45</v>
       </c>
@@ -6864,7 +10014,7 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
+      <c r="A126" s="11"/>
       <c r="B126" s="3" t="s">
         <v>46</v>
       </c>
@@ -6907,7 +10057,7 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="3" t="s">
         <v>47</v>
       </c>
@@ -6950,7 +10100,7 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="3" t="s">
         <v>48</v>
       </c>
@@ -6993,7 +10143,7 @@
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="3" t="s">
         <v>49</v>
       </c>
@@ -7036,7 +10186,7 @@
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="3" t="s">
         <v>50</v>
       </c>
@@ -7079,7 +10229,7 @@
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="3" t="s">
         <v>51</v>
       </c>
@@ -7122,7 +10272,7 @@
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="3" t="s">
         <v>52</v>
       </c>
@@ -7165,7 +10315,7 @@
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A133" s="9"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="3" t="s">
         <v>53</v>
       </c>
@@ -7208,7 +10358,7 @@
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="3" t="s">
         <v>54</v>
       </c>
@@ -7251,7 +10401,7 @@
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="3" t="s">
         <v>55</v>
       </c>
@@ -7294,7 +10444,7 @@
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="3" t="s">
         <v>56</v>
       </c>
@@ -7337,7 +10487,7 @@
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="3" t="s">
         <v>57</v>
       </c>
@@ -7380,7 +10530,7 @@
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="3" t="s">
         <v>58</v>
       </c>
@@ -7423,7 +10573,7 @@
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="3" t="s">
         <v>59</v>
       </c>
@@ -7466,7 +10616,7 @@
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="3" t="s">
         <v>60</v>
       </c>
@@ -7509,7 +10659,7 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
+      <c r="A141" s="11"/>
       <c r="B141" s="3" t="s">
         <v>61</v>
       </c>
@@ -7552,7 +10702,7 @@
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="3" t="s">
         <v>62</v>
       </c>
@@ -7595,7 +10745,7 @@
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="3" t="s">
         <v>63</v>
       </c>
@@ -7638,7 +10788,7 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="3" t="s">
         <v>64</v>
       </c>
@@ -7681,7 +10831,7 @@
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="3" t="s">
         <v>65</v>
       </c>
@@ -7724,7 +10874,7 @@
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="3" t="s">
         <v>66</v>
       </c>
@@ -7767,7 +10917,7 @@
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
+      <c r="A147" s="11"/>
       <c r="B147" s="3" t="s">
         <v>67</v>
       </c>
@@ -7810,7 +10960,7 @@
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="3" t="s">
         <v>68</v>
       </c>
@@ -7853,7 +11003,7 @@
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="3" t="s">
         <v>69</v>
       </c>
@@ -7896,7 +11046,7 @@
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="3" t="s">
         <v>70</v>
       </c>
@@ -7939,7 +11089,7 @@
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="3" t="s">
         <v>71</v>
       </c>
@@ -7982,7 +11132,7 @@
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="3" t="s">
         <v>72</v>
       </c>
@@ -8025,7 +11175,7 @@
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
+      <c r="A153" s="11"/>
       <c r="B153" s="3" t="s">
         <v>73</v>
       </c>
@@ -8068,7 +11218,7 @@
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="3" t="s">
         <v>74</v>
       </c>
@@ -8111,7 +11261,7 @@
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="3" t="s">
         <v>75</v>
       </c>
@@ -8154,7 +11304,7 @@
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
+      <c r="A156" s="11"/>
       <c r="B156" s="3" t="s">
         <v>76</v>
       </c>
@@ -8197,7 +11347,7 @@
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="3" t="s">
         <v>77</v>
       </c>
@@ -8240,7 +11390,7 @@
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="3" t="s">
         <v>78</v>
       </c>
@@ -8283,7 +11433,7 @@
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
+      <c r="A159" s="11"/>
       <c r="B159" s="3" t="s">
         <v>79</v>
       </c>
@@ -8326,7 +11476,7 @@
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="3" t="s">
         <v>80</v>
       </c>
@@ -8369,7 +11519,7 @@
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
+      <c r="A161" s="11"/>
       <c r="B161" s="3" t="s">
         <v>81</v>
       </c>
@@ -8412,7 +11562,7 @@
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="3" t="s">
         <v>82</v>
       </c>
@@ -8455,7 +11605,7 @@
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
+      <c r="A163" s="11"/>
       <c r="B163" s="3" t="s">
         <v>83</v>
       </c>
@@ -8498,7 +11648,7 @@
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="3" t="s">
         <v>84</v>
       </c>
@@ -8541,7 +11691,7 @@
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="3" t="s">
         <v>85</v>
       </c>
@@ -8584,7 +11734,7 @@
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="3" t="s">
         <v>86</v>
       </c>
@@ -8627,7 +11777,7 @@
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="3" t="s">
         <v>87</v>
       </c>
@@ -8670,7 +11820,7 @@
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="3" t="s">
         <v>88</v>
       </c>
@@ -8713,7 +11863,7 @@
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
+      <c r="A169" s="11"/>
       <c r="B169" s="3" t="s">
         <v>89</v>
       </c>
@@ -8756,7 +11906,7 @@
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="3" t="s">
         <v>90</v>
       </c>
@@ -8799,7 +11949,7 @@
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="3" t="s">
         <v>91</v>
       </c>
@@ -8842,7 +11992,7 @@
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
+      <c r="A172" s="11"/>
       <c r="B172" s="3" t="s">
         <v>92</v>
       </c>
@@ -8885,7 +12035,7 @@
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A173" s="9"/>
+      <c r="A173" s="11"/>
       <c r="B173" s="3" t="s">
         <v>93</v>
       </c>
@@ -8928,7 +12078,7 @@
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
+      <c r="A174" s="11"/>
       <c r="B174" s="3" t="s">
         <v>94</v>
       </c>
@@ -8971,7 +12121,7 @@
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
+      <c r="A175" s="11"/>
       <c r="B175" s="3" t="s">
         <v>95</v>
       </c>
@@ -9014,7 +12164,7 @@
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
+      <c r="A176" s="11"/>
       <c r="B176" s="3" t="s">
         <v>96</v>
       </c>
@@ -9057,7 +12207,7 @@
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
+      <c r="A177" s="11"/>
       <c r="B177" s="3" t="s">
         <v>97</v>
       </c>
@@ -9100,7 +12250,7 @@
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
+      <c r="A178" s="11"/>
       <c r="B178" s="3" t="s">
         <v>98</v>
       </c>
@@ -9143,7 +12293,7 @@
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="3" t="s">
         <v>99</v>
       </c>
@@ -9186,7 +12336,7 @@
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="3" t="s">
         <v>100</v>
       </c>
@@ -9229,7 +12379,7 @@
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="3" t="s">
         <v>101</v>
       </c>
@@ -9272,7 +12422,7 @@
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" s="9"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="3" t="s">
         <v>102</v>
       </c>
@@ -9353,7 +12503,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -9376,7 +12526,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -9397,7 +12547,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -9418,7 +12568,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -9439,7 +12589,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -9460,7 +12610,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -9484,7 +12634,7 @@
       <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -9507,7 +12657,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -9528,7 +12678,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -9549,7 +12699,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -9570,7 +12720,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -9591,7 +12741,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -9612,7 +12762,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -9633,7 +12783,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -9654,7 +12804,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -9675,7 +12825,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -9696,7 +12846,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -9717,7 +12867,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -9738,7 +12888,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" t="s">
         <v>37</v>
       </c>
@@ -9759,7 +12909,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -9780,7 +12930,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -9801,7 +12951,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -9822,7 +12972,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -9843,7 +12993,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -9864,7 +13014,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -9885,7 +13035,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>44</v>
       </c>
@@ -9906,7 +13056,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>45</v>
       </c>
@@ -9927,7 +13077,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="11"/>
       <c r="B30" t="s">
         <v>46</v>
       </c>
@@ -9948,7 +13098,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="11"/>
       <c r="B31" t="s">
         <v>47</v>
       </c>
@@ -9969,7 +13119,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
         <v>48</v>
       </c>
@@ -9990,7 +13140,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>49</v>
       </c>
@@ -10011,7 +13161,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>50</v>
       </c>
@@ -10032,7 +13182,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>51</v>
       </c>
@@ -10053,7 +13203,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>52</v>
       </c>
@@ -10074,7 +13224,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" t="s">
         <v>53</v>
       </c>
@@ -10095,7 +13245,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="11"/>
       <c r="B38" t="s">
         <v>54</v>
       </c>
@@ -10116,7 +13266,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="11"/>
       <c r="B39" t="s">
         <v>55</v>
       </c>
@@ -10137,7 +13287,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="11"/>
       <c r="B40" t="s">
         <v>56</v>
       </c>
@@ -10158,7 +13308,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>57</v>
       </c>
@@ -10179,7 +13329,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>58</v>
       </c>
@@ -10200,7 +13350,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
         <v>59</v>
       </c>
@@ -10221,7 +13371,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>60</v>
       </c>
@@ -10242,7 +13392,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>61</v>
       </c>
@@ -10263,7 +13413,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="11"/>
       <c r="B46" t="s">
         <v>62</v>
       </c>
@@ -10284,7 +13434,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>63</v>
       </c>
@@ -10305,7 +13455,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="11"/>
       <c r="B48" t="s">
         <v>64</v>
       </c>
@@ -10326,7 +13476,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="11"/>
       <c r="B49" t="s">
         <v>65</v>
       </c>
@@ -10347,7 +13497,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="11"/>
       <c r="B50" t="s">
         <v>66</v>
       </c>
@@ -10368,7 +13518,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="11"/>
       <c r="B51" t="s">
         <v>67</v>
       </c>
@@ -10389,7 +13539,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="11"/>
       <c r="B52" t="s">
         <v>68</v>
       </c>
@@ -10410,7 +13560,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" t="s">
         <v>69</v>
       </c>
@@ -10431,7 +13581,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="11"/>
       <c r="B54" t="s">
         <v>70</v>
       </c>
@@ -10452,7 +13602,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="11"/>
       <c r="B55" t="s">
         <v>71</v>
       </c>
@@ -10473,7 +13623,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
+      <c r="A56" s="11"/>
       <c r="B56" t="s">
         <v>72</v>
       </c>
@@ -10494,7 +13644,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="11"/>
       <c r="B57" t="s">
         <v>73</v>
       </c>
@@ -10515,7 +13665,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="11"/>
       <c r="B58" t="s">
         <v>74</v>
       </c>
@@ -10536,7 +13686,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" t="s">
         <v>75</v>
       </c>
@@ -10557,7 +13707,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="11"/>
       <c r="B60" t="s">
         <v>76</v>
       </c>
@@ -10578,7 +13728,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="11"/>
       <c r="B61" t="s">
         <v>77</v>
       </c>
@@ -10599,7 +13749,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="11"/>
       <c r="B62" t="s">
         <v>78</v>
       </c>
@@ -10620,7 +13770,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="11"/>
       <c r="B63" t="s">
         <v>79</v>
       </c>
@@ -10641,7 +13791,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="11"/>
       <c r="B64" t="s">
         <v>80</v>
       </c>
@@ -10662,7 +13812,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" t="s">
         <v>81</v>
       </c>
@@ -10683,7 +13833,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="11"/>
       <c r="B66" t="s">
         <v>82</v>
       </c>
@@ -10704,7 +13854,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" t="s">
         <v>83</v>
       </c>
@@ -10725,7 +13875,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
+      <c r="A68" s="11"/>
       <c r="B68" t="s">
         <v>84</v>
       </c>
@@ -10746,7 +13896,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="11"/>
       <c r="B69" t="s">
         <v>85</v>
       </c>
@@ -10767,7 +13917,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="11"/>
       <c r="B70" t="s">
         <v>86</v>
       </c>
@@ -10788,7 +13938,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="11"/>
       <c r="B71" t="s">
         <v>87</v>
       </c>
@@ -10809,7 +13959,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="11"/>
       <c r="B72" t="s">
         <v>88</v>
       </c>
@@ -10830,7 +13980,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="11"/>
       <c r="B73" t="s">
         <v>89</v>
       </c>
@@ -10851,7 +14001,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
+      <c r="A74" s="11"/>
       <c r="B74" t="s">
         <v>90</v>
       </c>
@@ -10872,7 +14022,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
+      <c r="A75" s="11"/>
       <c r="B75" t="s">
         <v>91</v>
       </c>
@@ -10893,7 +14043,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
+      <c r="A76" s="11"/>
       <c r="B76" t="s">
         <v>92</v>
       </c>
@@ -10914,7 +14064,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
+      <c r="A77" s="11"/>
       <c r="B77" t="s">
         <v>93</v>
       </c>
@@ -10935,7 +14085,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
+      <c r="A78" s="11"/>
       <c r="B78" t="s">
         <v>94</v>
       </c>
@@ -10956,7 +14106,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
+      <c r="A79" s="11"/>
       <c r="B79" t="s">
         <v>95</v>
       </c>
@@ -10977,7 +14127,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
+      <c r="A80" s="11"/>
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -10998,7 +14148,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
+      <c r="A81" s="11"/>
       <c r="B81" t="s">
         <v>97</v>
       </c>
@@ -11019,7 +14169,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
+      <c r="A82" s="11"/>
       <c r="B82" t="s">
         <v>98</v>
       </c>
@@ -11040,7 +14190,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
+      <c r="A83" s="11"/>
       <c r="B83" t="s">
         <v>99</v>
       </c>
@@ -11061,7 +14211,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
+      <c r="A84" s="11"/>
       <c r="B84" t="s">
         <v>100</v>
       </c>
@@ -11082,7 +14232,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
+      <c r="A85" s="11"/>
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -11103,7 +14253,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
+      <c r="A86" s="11"/>
       <c r="B86" t="s">
         <v>102</v>
       </c>
@@ -11124,7 +14274,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B88" t="s">
@@ -11144,7 +14294,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
+      <c r="A89" s="11"/>
       <c r="B89" t="s">
         <v>106</v>
       </c>
@@ -11162,7 +14312,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
+      <c r="A90" s="11"/>
       <c r="B90" t="s">
         <v>107</v>
       </c>
@@ -11180,7 +14330,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
+      <c r="A91" s="11"/>
       <c r="B91" t="s">
         <v>108</v>
       </c>
@@ -11198,7 +14348,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
+      <c r="A92" s="11"/>
       <c r="B92" t="s">
         <v>109</v>
       </c>
@@ -11216,7 +14366,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
+      <c r="A93" s="11"/>
       <c r="B93" t="s">
         <v>110</v>
       </c>
@@ -11234,7 +14384,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
+      <c r="A94" s="11"/>
       <c r="B94" t="s">
         <v>111</v>
       </c>
@@ -11252,7 +14402,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
+      <c r="A95" s="11"/>
       <c r="B95" t="s">
         <v>112</v>
       </c>
@@ -11270,7 +14420,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
+      <c r="A96" s="11"/>
       <c r="B96" t="s">
         <v>113</v>
       </c>
@@ -11288,7 +14438,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
+      <c r="A97" s="11"/>
       <c r="B97" t="s">
         <v>114</v>
       </c>
@@ -11306,7 +14456,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
+      <c r="A98" s="11"/>
       <c r="B98" t="s">
         <v>115</v>
       </c>
@@ -11324,7 +14474,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
+      <c r="A99" s="11"/>
       <c r="B99" t="s">
         <v>116</v>
       </c>
@@ -11342,7 +14492,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
+      <c r="A100" s="11"/>
       <c r="B100" t="s">
         <v>117</v>
       </c>
@@ -11360,7 +14510,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
+      <c r="A101" s="11"/>
       <c r="B101" t="s">
         <v>25</v>
       </c>
@@ -11378,7 +14528,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
+      <c r="A102" s="11"/>
       <c r="B102" t="s">
         <v>26</v>
       </c>
@@ -11396,7 +14546,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
+      <c r="A103" s="11"/>
       <c r="B103" t="s">
         <v>27</v>
       </c>
@@ -11414,7 +14564,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
+      <c r="A104" s="11"/>
       <c r="B104" t="s">
         <v>28</v>
       </c>
@@ -11432,7 +14582,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
+      <c r="A105" s="11"/>
       <c r="B105" t="s">
         <v>29</v>
       </c>
@@ -11450,7 +14600,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
+      <c r="A106" s="11"/>
       <c r="B106" t="s">
         <v>30</v>
       </c>
@@ -11468,7 +14618,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="9"/>
+      <c r="A107" s="11"/>
       <c r="B107" t="s">
         <v>31</v>
       </c>
@@ -11486,7 +14636,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="9"/>
+      <c r="A108" s="11"/>
       <c r="B108" t="s">
         <v>32</v>
       </c>
@@ -11504,7 +14654,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="9"/>
+      <c r="A109" s="11"/>
       <c r="B109" t="s">
         <v>33</v>
       </c>
@@ -11522,7 +14672,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
+      <c r="A110" s="11"/>
       <c r="B110" t="s">
         <v>34</v>
       </c>
@@ -11540,7 +14690,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
+      <c r="A111" s="11"/>
       <c r="B111" t="s">
         <v>35</v>
       </c>
@@ -11558,7 +14708,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
+      <c r="A112" s="11"/>
       <c r="B112" t="s">
         <v>36</v>
       </c>
@@ -11576,7 +14726,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
+      <c r="A113" s="11"/>
       <c r="B113" t="s">
         <v>37</v>
       </c>
@@ -11594,7 +14744,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
+      <c r="A114" s="11"/>
       <c r="B114" t="s">
         <v>38</v>
       </c>
@@ -11612,7 +14762,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
+      <c r="A115" s="11"/>
       <c r="B115" t="s">
         <v>39</v>
       </c>
@@ -11630,7 +14780,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
+      <c r="A116" s="11"/>
       <c r="B116" t="s">
         <v>40</v>
       </c>
@@ -11648,7 +14798,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="9"/>
+      <c r="A117" s="11"/>
       <c r="B117" t="s">
         <v>41</v>
       </c>
@@ -11666,7 +14816,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="9"/>
+      <c r="A118" s="11"/>
       <c r="B118" t="s">
         <v>42</v>
       </c>
@@ -11684,7 +14834,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="9"/>
+      <c r="A119" s="11"/>
       <c r="B119" t="s">
         <v>43</v>
       </c>
@@ -11702,7 +14852,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="9"/>
+      <c r="A120" s="11"/>
       <c r="B120" t="s">
         <v>44</v>
       </c>
@@ -11720,7 +14870,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="9"/>
+      <c r="A121" s="11"/>
       <c r="B121" t="s">
         <v>45</v>
       </c>
@@ -11738,7 +14888,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
+      <c r="A122" s="11"/>
       <c r="B122" t="s">
         <v>46</v>
       </c>
@@ -11756,7 +14906,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="9"/>
+      <c r="A123" s="11"/>
       <c r="B123" t="s">
         <v>47</v>
       </c>
@@ -11774,7 +14924,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
+      <c r="A124" s="11"/>
       <c r="B124" t="s">
         <v>48</v>
       </c>
@@ -11792,7 +14942,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="9"/>
+      <c r="A125" s="11"/>
       <c r="B125" t="s">
         <v>49</v>
       </c>
@@ -11810,7 +14960,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="9"/>
+      <c r="A126" s="11"/>
       <c r="B126" t="s">
         <v>50</v>
       </c>
@@ -11828,7 +14978,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="9"/>
+      <c r="A127" s="11"/>
       <c r="B127" t="s">
         <v>51</v>
       </c>
@@ -11846,7 +14996,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="9"/>
+      <c r="A128" s="11"/>
       <c r="B128" t="s">
         <v>52</v>
       </c>
@@ -11864,7 +15014,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="9"/>
+      <c r="A129" s="11"/>
       <c r="B129" t="s">
         <v>53</v>
       </c>
@@ -11882,7 +15032,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="9"/>
+      <c r="A130" s="11"/>
       <c r="B130" t="s">
         <v>54</v>
       </c>
@@ -11900,7 +15050,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="9"/>
+      <c r="A131" s="11"/>
       <c r="B131" t="s">
         <v>55</v>
       </c>
@@ -11918,7 +15068,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="9"/>
+      <c r="A132" s="11"/>
       <c r="B132" t="s">
         <v>56</v>
       </c>
@@ -11936,7 +15086,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="9"/>
+      <c r="A133" s="11"/>
       <c r="B133" t="s">
         <v>57</v>
       </c>
@@ -11954,7 +15104,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="9"/>
+      <c r="A134" s="11"/>
       <c r="B134" t="s">
         <v>58</v>
       </c>
@@ -11972,7 +15122,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="9"/>
+      <c r="A135" s="11"/>
       <c r="B135" t="s">
         <v>59</v>
       </c>
@@ -11990,7 +15140,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="9"/>
+      <c r="A136" s="11"/>
       <c r="B136" t="s">
         <v>60</v>
       </c>
@@ -12008,7 +15158,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="9"/>
+      <c r="A137" s="11"/>
       <c r="B137" t="s">
         <v>61</v>
       </c>
@@ -12026,7 +15176,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="9"/>
+      <c r="A138" s="11"/>
       <c r="B138" t="s">
         <v>62</v>
       </c>
@@ -12044,7 +15194,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="9"/>
+      <c r="A139" s="11"/>
       <c r="B139" t="s">
         <v>63</v>
       </c>
@@ -12062,7 +15212,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="9"/>
+      <c r="A140" s="11"/>
       <c r="B140" t="s">
         <v>64</v>
       </c>
@@ -12080,7 +15230,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="9"/>
+      <c r="A141" s="11"/>
       <c r="B141" t="s">
         <v>65</v>
       </c>
@@ -12098,7 +15248,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="9"/>
+      <c r="A142" s="11"/>
       <c r="B142" t="s">
         <v>66</v>
       </c>
@@ -12116,7 +15266,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="9"/>
+      <c r="A143" s="11"/>
       <c r="B143" t="s">
         <v>67</v>
       </c>
@@ -12134,7 +15284,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="9"/>
+      <c r="A144" s="11"/>
       <c r="B144" t="s">
         <v>68</v>
       </c>
@@ -12152,7 +15302,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="9"/>
+      <c r="A145" s="11"/>
       <c r="B145" t="s">
         <v>69</v>
       </c>
@@ -12170,7 +15320,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
+      <c r="A146" s="11"/>
       <c r="B146" t="s">
         <v>70</v>
       </c>
@@ -12188,7 +15338,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="9"/>
+      <c r="A147" s="11"/>
       <c r="B147" t="s">
         <v>71</v>
       </c>
@@ -12206,7 +15356,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="9"/>
+      <c r="A148" s="11"/>
       <c r="B148" t="s">
         <v>72</v>
       </c>
@@ -12224,7 +15374,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="9"/>
+      <c r="A149" s="11"/>
       <c r="B149" t="s">
         <v>73</v>
       </c>
@@ -12242,7 +15392,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="9"/>
+      <c r="A150" s="11"/>
       <c r="B150" t="s">
         <v>74</v>
       </c>
@@ -12260,7 +15410,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="9"/>
+      <c r="A151" s="11"/>
       <c r="B151" t="s">
         <v>75</v>
       </c>
@@ -12278,7 +15428,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="9"/>
+      <c r="A152" s="11"/>
       <c r="B152" t="s">
         <v>76</v>
       </c>
@@ -12296,7 +15446,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="9"/>
+      <c r="A153" s="11"/>
       <c r="B153" t="s">
         <v>77</v>
       </c>
@@ -12314,7 +15464,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="9"/>
+      <c r="A154" s="11"/>
       <c r="B154" t="s">
         <v>78</v>
       </c>
@@ -12332,7 +15482,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="9"/>
+      <c r="A155" s="11"/>
       <c r="B155" t="s">
         <v>79</v>
       </c>
@@ -12350,7 +15500,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="9"/>
+      <c r="A156" s="11"/>
       <c r="B156" t="s">
         <v>80</v>
       </c>
@@ -12368,7 +15518,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="9"/>
+      <c r="A157" s="11"/>
       <c r="B157" t="s">
         <v>81</v>
       </c>
@@ -12386,7 +15536,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="9"/>
+      <c r="A158" s="11"/>
       <c r="B158" t="s">
         <v>82</v>
       </c>
@@ -12404,7 +15554,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="9"/>
+      <c r="A159" s="11"/>
       <c r="B159" t="s">
         <v>83</v>
       </c>
@@ -12422,7 +15572,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="9"/>
+      <c r="A160" s="11"/>
       <c r="B160" t="s">
         <v>84</v>
       </c>
@@ -12440,7 +15590,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="9"/>
+      <c r="A161" s="11"/>
       <c r="B161" t="s">
         <v>85</v>
       </c>
@@ -12458,7 +15608,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
+      <c r="A162" s="11"/>
       <c r="B162" t="s">
         <v>86</v>
       </c>
@@ -12476,7 +15626,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
+      <c r="A163" s="11"/>
       <c r="B163" t="s">
         <v>87</v>
       </c>
@@ -12494,7 +15644,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
+      <c r="A164" s="11"/>
       <c r="B164" t="s">
         <v>88</v>
       </c>
@@ -12512,7 +15662,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="9"/>
+      <c r="A165" s="11"/>
       <c r="B165" t="s">
         <v>89</v>
       </c>
@@ -12530,7 +15680,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="9"/>
+      <c r="A166" s="11"/>
       <c r="B166" t="s">
         <v>90</v>
       </c>
@@ -12548,7 +15698,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="9"/>
+      <c r="A167" s="11"/>
       <c r="B167" t="s">
         <v>91</v>
       </c>
@@ -12566,7 +15716,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="9"/>
+      <c r="A168" s="11"/>
       <c r="B168" t="s">
         <v>92</v>
       </c>
@@ -12584,7 +15734,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="9"/>
+      <c r="A169" s="11"/>
       <c r="B169" t="s">
         <v>93</v>
       </c>
@@ -12602,7 +15752,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="9"/>
+      <c r="A170" s="11"/>
       <c r="B170" t="s">
         <v>94</v>
       </c>
@@ -12620,7 +15770,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="9"/>
+      <c r="A171" s="11"/>
       <c r="B171" t="s">
         <v>95</v>
       </c>
@@ -12638,7 +15788,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="9"/>
+      <c r="A172" s="11"/>
       <c r="B172" t="s">
         <v>96</v>
       </c>
@@ -12656,7 +15806,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="9"/>
+      <c r="A173" s="11"/>
       <c r="B173" t="s">
         <v>97</v>
       </c>
@@ -12674,7 +15824,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="9"/>
+      <c r="A174" s="11"/>
       <c r="B174" t="s">
         <v>98</v>
       </c>
@@ -12692,7 +15842,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
+      <c r="A175" s="11"/>
       <c r="B175" t="s">
         <v>99</v>
       </c>
@@ -12710,7 +15860,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
+      <c r="A176" s="11"/>
       <c r="B176" t="s">
         <v>100</v>
       </c>
@@ -12728,7 +15878,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="9"/>
+      <c r="A177" s="11"/>
       <c r="B177" t="s">
         <v>101</v>
       </c>
@@ -12746,7 +15896,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
+      <c r="A178" s="11"/>
       <c r="B178" t="s">
         <v>102</v>
       </c>
@@ -12777,7 +15927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="277" zoomScaleNormal="277" zoomScalePageLayoutView="277" workbookViewId="0">
+    <sheetView zoomScale="277" zoomScaleNormal="277" zoomScalePageLayoutView="277" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -12926,10 +16076,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="213" zoomScaleNormal="213" zoomScalePageLayoutView="213" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12940,18 +16090,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -13003,7 +16153,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="7">
@@ -13026,7 +16176,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="7">
         <v>1.81292796134948</v>
       </c>
@@ -13047,7 +16197,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="7">
         <v>1.1551830768585201</v>
       </c>
@@ -13068,144 +16218,324 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10">
+        <f>SUM(B5:B7)/3</f>
+        <v>1.7183300654093365</v>
+      </c>
+      <c r="C8" s="10">
+        <f>SUM(C5:C7)/3</f>
+        <v>17.928634643554666</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" ref="D8:G8" si="0">SUM(D5:D7)/3</f>
+        <v>6.6452020804087297</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>31.793924252192131</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0656793117523167</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="0"/>
+        <v>17.345637559890701</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>0.19143700599670399</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>2.2749361991882302</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>1.06622815132141</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>5.2785730361938397</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>1.8032851219177199</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>14.8264069557189</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="7">
         <v>0.11680793762206999</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>1.4579710960388099</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>0.997872114181518</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>4.5812520980834899</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>1.39819908142089</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>11.341288805007901</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7">
         <v>8.5988998413085896E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>1.0190069675445499</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>1.008061170578</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>4.8352560997009197</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>1.3490898609161299</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <v>8.6905760765075595</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="10">
+        <f>SUM(B10:B12)/3</f>
+        <v>0.13141131401061995</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13:G13" si="1">SUM(C10:C12)/3</f>
+        <v>1.5839714209238636</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.024053812026976</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8983604113260837</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5168580214182465</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>11.619423945744787</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="B16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <v>51.9542779922485</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.7183300654093365</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17.928634643554666</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.13141131401061995</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.5839714209238636</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1428.31413888931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="10">
+        <v>6.6452020804087297</v>
+      </c>
+      <c r="C24" s="10">
+        <v>31.793924252192131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1.024053812026976</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4.8983604113260837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1537.6369822025299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="10">
+        <v>5.0656793117523167</v>
+      </c>
+      <c r="C30" s="10">
+        <v>17.345637559890701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1.5168580214182465</v>
+      </c>
+      <c r="C31" s="10">
+        <v>11.619423945744787</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>